--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.2.4-poland-v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddfincannon/Projects/eps-poland/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5795677D-AD76-EF41-AAF1-2B27FEE208FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="18960" windowHeight="6210"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18960" windowHeight="6220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -22,17 +23,27 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$P$275</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jeffrey Rissman</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K86" authorId="0" shapeId="0">
+    <comment ref="K86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -85,18 +96,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="OuputGraphSchema" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="OuputGraphSchema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="Z:\todd\Projects\PolicySolutions\tools\lib\OuputGraphSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="PolicyLeverSchema" type="4" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="PolicyLeverSchema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="Z:\todd\Projects\PolicySolutions\tools\lib\PolicyLeverSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="871">
   <si>
     <t>Short Name</t>
   </si>
@@ -2400,12 +2411,6 @@
     <t>087bf1, c01b00, ffff00, 969696, 620e7a, 00b050</t>
   </si>
   <si>
-    <t>40% Under 2005 Levels</t>
-  </si>
-  <si>
-    <t>Scenario_40PercUnder2005.cin</t>
-  </si>
-  <si>
     <t>European Commission Suggested Target</t>
   </si>
   <si>
@@ -2910,7 +2915,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -3679,9 +3684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3691,17 +3693,20 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Body: normal cell 2" xfId="5"/>
-    <cellStyle name="Comma 6" xfId="6"/>
-    <cellStyle name="Header: bottom row 2" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
@@ -4256,80 +4261,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="11"/>
+    <col min="1" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="54" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="54"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <f>MAX(PolicyLevers!H2:H1001)</f>
         <v>187</v>
@@ -4337,7 +4342,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -4345,7 +4350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4353,29 +4358,29 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.85546875" style="5" customWidth="1"/>
-    <col min="6" max="7" width="23.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="58" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" style="88" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.5" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.83203125" style="5" customWidth="1"/>
+    <col min="6" max="7" width="23.1640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="58" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" style="88" customWidth="1"/>
     <col min="12" max="12" width="19" style="5" customWidth="1"/>
-    <col min="13" max="14" width="19.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="28.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="117.28515625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="52.42578125" style="5" customWidth="1"/>
-    <col min="18" max="18" width="43.42578125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.85546875" style="8" customWidth="1"/>
-    <col min="20" max="20" width="37.28515625" style="9" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="5"/>
+    <col min="13" max="14" width="19.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="28.5" style="5" customWidth="1"/>
+    <col min="16" max="16" width="117.33203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="52.5" style="5" customWidth="1"/>
+    <col min="18" max="18" width="43.5" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.83203125" style="8" customWidth="1"/>
+    <col min="20" max="20" width="37.33203125" style="9" customWidth="1"/>
+    <col min="21" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>3</v>
       </c>
@@ -4407,7 +4412,7 @@
         <v>483</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L1" s="59" t="s">
         <v>86</v>
@@ -4437,7 +4442,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
@@ -4474,7 +4479,7 @@
         <v>665</v>
       </c>
       <c r="P2" s="86" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="Q2" s="62" t="s">
         <v>244</v>
@@ -4489,7 +4494,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
         <v>4</v>
       </c>
@@ -4531,7 +4536,7 @@
         <v>134</v>
       </c>
       <c r="P3" s="86" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="Q3" s="62" t="s">
         <v>246</v>
@@ -4546,7 +4551,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="65" t="str">
         <f>A$3</f>
         <v>Transportation</v>
@@ -4595,7 +4600,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P4" s="86" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="Q4" s="65" t="str">
         <f t="shared" si="1"/>
@@ -4612,7 +4617,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="str">
         <f>A$3</f>
         <v>Transportation</v>
@@ -4661,7 +4666,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P5" s="86" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="Q5" s="65" t="str">
         <f t="shared" si="1"/>
@@ -4678,7 +4683,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="65" t="str">
         <f>A$3</f>
         <v>Transportation</v>
@@ -4727,7 +4732,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P6" s="86" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="Q6" s="65" t="str">
         <f t="shared" si="1"/>
@@ -4744,7 +4749,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="str">
         <f>A$3</f>
         <v>Transportation</v>
@@ -4793,7 +4798,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P7" s="86" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Q7" s="65" t="str">
         <f t="shared" si="1"/>
@@ -4810,7 +4815,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="str">
         <f>A$3</f>
         <v>Transportation</v>
@@ -4859,7 +4864,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P8" s="86" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="Q8" s="65" t="str">
         <f t="shared" si="1"/>
@@ -4876,7 +4881,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="62" t="s">
         <v>4</v>
       </c>
@@ -4930,7 +4935,7 @@
       </c>
       <c r="T9" s="62"/>
     </row>
-    <row r="10" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="65" t="str">
         <f>A$9</f>
         <v>Transportation</v>
@@ -4995,7 +5000,7 @@
       </c>
       <c r="T10" s="62"/>
     </row>
-    <row r="11" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="62" t="s">
         <v>4</v>
       </c>
@@ -5040,7 +5045,7 @@
         <v>47</v>
       </c>
       <c r="P11" s="86" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="Q11" s="62" t="s">
         <v>250</v>
@@ -5053,7 +5058,7 @@
       </c>
       <c r="T11" s="62"/>
     </row>
-    <row r="12" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="str">
         <f t="shared" ref="A12:C22" si="4">A$11</f>
         <v>Transportation</v>
@@ -5099,7 +5104,7 @@
       <c r="S12" s="65"/>
       <c r="T12" s="65"/>
     </row>
-    <row r="13" spans="1:20" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5152,7 +5157,7 @@
         <v>% of non-electric vehicles replaced</v>
       </c>
       <c r="P13" s="86" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="Q13" s="62" t="s">
         <v>250</v>
@@ -5161,11 +5166,11 @@
         <v>251</v>
       </c>
       <c r="S13" s="86" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="T13" s="62"/>
     </row>
-    <row r="14" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5211,7 +5216,7 @@
       <c r="S14" s="65"/>
       <c r="T14" s="65"/>
     </row>
-    <row r="15" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5257,7 +5262,7 @@
       <c r="S15" s="65"/>
       <c r="T15" s="65"/>
     </row>
-    <row r="16" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5303,7 +5308,7 @@
       <c r="S16" s="65"/>
       <c r="T16" s="65"/>
     </row>
-    <row r="17" spans="1:20" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5369,7 +5374,7 @@
       </c>
       <c r="T17" s="65"/>
     </row>
-    <row r="18" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5415,7 +5420,7 @@
       <c r="S18" s="65"/>
       <c r="T18" s="65"/>
     </row>
-    <row r="19" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5461,7 +5466,7 @@
       <c r="S19" s="65"/>
       <c r="T19" s="65"/>
     </row>
-    <row r="20" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5507,7 +5512,7 @@
       <c r="S20" s="65"/>
       <c r="T20" s="65"/>
     </row>
-    <row r="21" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5551,7 +5556,7 @@
       <c r="S21" s="65"/>
       <c r="T21" s="65"/>
     </row>
-    <row r="22" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5595,7 +5600,7 @@
       <c r="S22" s="65"/>
       <c r="T22" s="65"/>
     </row>
-    <row r="23" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="62" t="s">
         <v>88</v>
       </c>
@@ -5636,7 +5641,7 @@
         <v>136</v>
       </c>
       <c r="P23" s="86" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="Q23" s="62" t="s">
         <v>252</v>
@@ -5647,7 +5652,7 @@
       <c r="S23" s="62"/>
       <c r="T23" s="62"/>
     </row>
-    <row r="24" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="65" t="str">
         <f>A$23</f>
         <v>Buildings and Appliances</v>
@@ -5696,7 +5701,7 @@
         <v>% of newly sold non-electric building components</v>
       </c>
       <c r="P24" s="86" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="Q24" s="68" t="str">
         <f t="shared" si="7"/>
@@ -5709,7 +5714,7 @@
       <c r="S24" s="68"/>
       <c r="T24" s="68"/>
     </row>
-    <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="65" t="str">
         <f>A$23</f>
         <v>Buildings and Appliances</v>
@@ -5758,7 +5763,7 @@
         <v>% of newly sold non-electric building components</v>
       </c>
       <c r="P25" s="86" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="Q25" s="68" t="str">
         <f t="shared" si="7"/>
@@ -5771,7 +5776,7 @@
       <c r="S25" s="68"/>
       <c r="T25" s="68"/>
     </row>
-    <row r="26" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A26" s="62" t="s">
         <v>88</v>
       </c>
@@ -5816,7 +5821,7 @@
         <v>41</v>
       </c>
       <c r="P26" s="86" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="Q26" s="62" t="s">
         <v>254</v>
@@ -5831,7 +5836,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A27" s="65" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -5884,7 +5889,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P27" s="86" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="Q27" s="65" t="str">
         <f t="shared" si="11"/>
@@ -5907,7 +5912,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A28" s="65" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -5959,7 +5964,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P28" s="86" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="Q28" s="65" t="str">
         <f t="shared" si="11"/>
@@ -5982,7 +5987,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" s="65" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -6035,7 +6040,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P29" s="86" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="Q29" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6058,7 +6063,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A30" s="65" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -6111,7 +6116,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P30" s="86" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="Q30" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6134,7 +6139,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A31" s="65" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -6187,7 +6192,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P31" s="86" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="Q31" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6210,7 +6215,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" s="65" t="str">
         <f t="shared" ref="A32:C43" si="13">A$26</f>
         <v>Buildings and Appliances</v>
@@ -6263,7 +6268,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P32" s="86" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="Q32" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6286,7 +6291,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A33" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6339,7 +6344,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P33" s="86" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="Q33" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6362,7 +6367,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A34" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6415,7 +6420,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P34" s="86" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="Q34" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6438,7 +6443,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A35" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6491,7 +6496,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P35" s="86" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="Q35" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6514,7 +6519,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A36" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6567,7 +6572,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P36" s="86" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="Q36" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6590,7 +6595,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A37" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6643,7 +6648,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P37" s="86" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="Q37" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6666,7 +6671,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A38" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6719,7 +6724,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P38" s="86" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="Q38" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6742,7 +6747,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A39" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6795,7 +6800,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P39" s="86" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="Q39" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6818,7 +6823,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A40" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6871,7 +6876,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P40" s="86" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="Q40" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6894,7 +6899,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A41" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6947,7 +6952,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P41" s="86" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="Q41" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6970,7 +6975,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A42" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -7023,7 +7028,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P42" s="86" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="Q42" s="65" t="str">
         <f t="shared" si="11"/>
@@ -7046,7 +7051,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A43" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -7099,7 +7104,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P43" s="86" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Q43" s="65" t="str">
         <f t="shared" ref="Q43:S43" si="16">Q$26</f>
@@ -7122,7 +7127,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="62" t="s">
         <v>88</v>
       </c>
@@ -7172,7 +7177,7 @@
       </c>
       <c r="T44" s="65"/>
     </row>
-    <row r="45" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A45" s="62" t="s">
         <v>88</v>
       </c>
@@ -7210,7 +7215,7 @@
         <v>337</v>
       </c>
       <c r="P45" s="86" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="Q45" s="62" t="s">
         <v>338</v>
@@ -7225,7 +7230,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="62" t="s">
         <v>88</v>
       </c>
@@ -7262,7 +7267,7 @@
         <v>344</v>
       </c>
       <c r="P46" s="86" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="Q46" s="62" t="s">
         <v>341</v>
@@ -7275,7 +7280,7 @@
       </c>
       <c r="T46" s="65"/>
     </row>
-    <row r="47" spans="1:20" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="62" t="s">
         <v>88</v>
       </c>
@@ -7325,7 +7330,7 @@
       </c>
       <c r="T47" s="65"/>
     </row>
-    <row r="48" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A48" s="62" t="s">
         <v>88</v>
       </c>
@@ -7382,7 +7387,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A49" s="65" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -7445,7 +7450,7 @@
       </c>
       <c r="T49" s="65"/>
     </row>
-    <row r="50" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A50" s="65" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -7508,7 +7513,7 @@
       </c>
       <c r="T50" s="65"/>
     </row>
-    <row r="51" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A51" s="65" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -7571,7 +7576,7 @@
       </c>
       <c r="T51" s="65"/>
     </row>
-    <row r="52" spans="1:20" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="65" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -7634,7 +7639,7 @@
       </c>
       <c r="T52" s="65"/>
     </row>
-    <row r="53" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A53" s="65" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -7697,7 +7702,7 @@
       </c>
       <c r="T53" s="65"/>
     </row>
-    <row r="54" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="62" t="s">
         <v>88</v>
       </c>
@@ -7738,7 +7743,7 @@
         <v>38</v>
       </c>
       <c r="P54" s="86" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="Q54" s="62" t="s">
         <v>262</v>
@@ -7751,7 +7756,7 @@
       </c>
       <c r="T54" s="65"/>
     </row>
-    <row r="55" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="65" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -7800,7 +7805,7 @@
         <v>on/off</v>
       </c>
       <c r="P55" s="86" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="Q55" s="62" t="s">
         <v>262</v>
@@ -7813,7 +7818,7 @@
       </c>
       <c r="T55" s="65"/>
     </row>
-    <row r="56" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="65" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -7855,7 +7860,7 @@
       <c r="S56" s="65"/>
       <c r="T56" s="65"/>
     </row>
-    <row r="57" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="65" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -7897,7 +7902,7 @@
       <c r="S57" s="65"/>
       <c r="T57" s="65"/>
     </row>
-    <row r="58" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="65" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -7946,7 +7951,7 @@
         <v>on/off</v>
       </c>
       <c r="P58" s="86" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="Q58" s="62" t="s">
         <v>262</v>
@@ -7959,7 +7964,7 @@
       </c>
       <c r="T58" s="65"/>
     </row>
-    <row r="59" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="65" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -8001,7 +8006,7 @@
       <c r="S59" s="65"/>
       <c r="T59" s="65"/>
     </row>
-    <row r="60" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>8</v>
       </c>
@@ -8042,7 +8047,7 @@
         <v>38</v>
       </c>
       <c r="P60" s="86" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="Q60" s="62" t="s">
         <v>450</v>
@@ -8053,7 +8058,7 @@
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
     </row>
-    <row r="61" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="65" t="str">
         <f>A$60</f>
         <v>Electricity Supply</v>
@@ -8115,7 +8120,7 @@
       <c r="S61" s="65"/>
       <c r="T61" s="65"/>
     </row>
-    <row r="62" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="65" t="str">
         <f t="shared" ref="A62:C71" si="24">A$60</f>
         <v>Electricity Supply</v>
@@ -8177,7 +8182,7 @@
       <c r="S62" s="65"/>
       <c r="T62" s="65"/>
     </row>
-    <row r="63" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8239,7 +8244,7 @@
       <c r="S63" s="65"/>
       <c r="T63" s="65"/>
     </row>
-    <row r="64" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8279,7 +8284,7 @@
       <c r="S64" s="65"/>
       <c r="T64" s="65"/>
     </row>
-    <row r="65" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8319,7 +8324,7 @@
       <c r="S65" s="65"/>
       <c r="T65" s="65"/>
     </row>
-    <row r="66" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8359,7 +8364,7 @@
       <c r="S66" s="65"/>
       <c r="T66" s="65"/>
     </row>
-    <row r="67" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8408,7 +8413,7 @@
         <v>on/off</v>
       </c>
       <c r="P67" s="86" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="Q67" s="91" t="str">
         <f t="shared" ref="Q67:R67" si="26">Q$60</f>
@@ -8421,7 +8426,7 @@
       <c r="S67" s="65"/>
       <c r="T67" s="65"/>
     </row>
-    <row r="68" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8461,7 +8466,7 @@
       <c r="S68" s="65"/>
       <c r="T68" s="65"/>
     </row>
-    <row r="69" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8501,7 +8506,7 @@
       <c r="S69" s="65"/>
       <c r="T69" s="65"/>
     </row>
-    <row r="70" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8561,7 +8566,7 @@
       <c r="S70" s="65"/>
       <c r="T70" s="65"/>
     </row>
-    <row r="71" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8601,7 +8606,7 @@
       <c r="S71" s="65"/>
       <c r="T71" s="65"/>
     </row>
-    <row r="72" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>8</v>
       </c>
@@ -8638,7 +8643,7 @@
         <v>349</v>
       </c>
       <c r="P72" s="86" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="Q72" s="62" t="s">
         <v>351</v>
@@ -8651,7 +8656,7 @@
       </c>
       <c r="T72" s="12"/>
     </row>
-    <row r="73" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>8</v>
       </c>
@@ -8688,7 +8693,7 @@
         <v>350</v>
       </c>
       <c r="P73" s="86" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="Q73" s="62" t="s">
         <v>352</v>
@@ -8701,7 +8706,7 @@
       </c>
       <c r="T73" s="12"/>
     </row>
-    <row r="74" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="62" t="s">
         <v>8</v>
       </c>
@@ -8735,7 +8740,7 @@
       <c r="S74" s="62"/>
       <c r="T74" s="62"/>
     </row>
-    <row r="75" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="62" t="s">
         <v>8</v>
       </c>
@@ -8772,7 +8777,7 @@
         <v>44</v>
       </c>
       <c r="P75" s="86" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="Q75" s="62" t="s">
         <v>264</v>
@@ -8785,7 +8790,7 @@
       </c>
       <c r="T75" s="62"/>
     </row>
-    <row r="76" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="62" t="s">
         <v>8</v>
       </c>
@@ -8826,7 +8831,7 @@
         <v>241</v>
       </c>
       <c r="P76" s="86" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="Q76" s="62" t="s">
         <v>266</v>
@@ -8837,7 +8842,7 @@
       <c r="S76" s="86"/>
       <c r="T76" s="86"/>
     </row>
-    <row r="77" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="65" t="str">
         <f t="shared" ref="A77:C87" si="29">A$76</f>
         <v>Electricity Supply</v>
@@ -8879,7 +8884,7 @@
       <c r="S77" s="62"/>
       <c r="T77" s="62"/>
     </row>
-    <row r="78" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -8943,7 +8948,7 @@
       </c>
       <c r="T78" s="62"/>
     </row>
-    <row r="79" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -8985,7 +8990,7 @@
       <c r="S79" s="62"/>
       <c r="T79" s="62"/>
     </row>
-    <row r="80" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9027,7 +9032,7 @@
       <c r="S80" s="62"/>
       <c r="T80" s="62"/>
     </row>
-    <row r="81" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9069,7 +9074,7 @@
       <c r="S81" s="62"/>
       <c r="T81" s="62"/>
     </row>
-    <row r="82" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9111,7 +9116,7 @@
       <c r="S82" s="62"/>
       <c r="T82" s="62"/>
     </row>
-    <row r="83" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9153,7 +9158,7 @@
       <c r="S83" s="62"/>
       <c r="T83" s="62"/>
     </row>
-    <row r="84" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9193,7 +9198,7 @@
       <c r="S84" s="62"/>
       <c r="T84" s="62"/>
     </row>
-    <row r="85" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9233,7 +9238,7 @@
       <c r="S85" s="62"/>
       <c r="T85" s="62"/>
     </row>
-    <row r="86" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9282,7 +9287,7 @@
         <v>MW/year</v>
       </c>
       <c r="P86" s="86" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="Q86" s="91" t="str">
         <f t="shared" ref="Q86:R86" si="32">Q$76</f>
@@ -9295,7 +9300,7 @@
       <c r="S86" s="62"/>
       <c r="T86" s="62"/>
     </row>
-    <row r="87" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9335,7 +9340,7 @@
       <c r="S87" s="62"/>
       <c r="T87" s="62"/>
     </row>
-    <row r="88" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A88" s="62" t="s">
         <v>8</v>
       </c>
@@ -9372,7 +9377,7 @@
         <v>39</v>
       </c>
       <c r="P88" s="86" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="Q88" s="62" t="s">
         <v>268</v>
@@ -9387,7 +9392,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A89" s="62" t="s">
         <v>8</v>
       </c>
@@ -9425,7 +9430,7 @@
         <v>157</v>
       </c>
       <c r="P89" s="86" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="Q89" s="62" t="s">
         <v>270</v>
@@ -9440,7 +9445,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="62" t="s">
         <v>8</v>
       </c>
@@ -9474,7 +9479,7 @@
       <c r="S90" s="65"/>
       <c r="T90" s="65"/>
     </row>
-    <row r="91" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="62" t="s">
         <v>8</v>
       </c>
@@ -9508,7 +9513,7 @@
       <c r="S91" s="65"/>
       <c r="T91" s="65"/>
     </row>
-    <row r="92" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="62" t="s">
         <v>8</v>
       </c>
@@ -9546,7 +9551,7 @@
       <c r="S92" s="65"/>
       <c r="T92" s="65"/>
     </row>
-    <row r="93" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="65" t="str">
         <f>A$92</f>
         <v>Electricity Supply</v>
@@ -9588,7 +9593,7 @@
       <c r="S93" s="65"/>
       <c r="T93" s="65"/>
     </row>
-    <row r="94" spans="1:20" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A94" s="65" t="str">
         <f t="shared" ref="A94:C101" si="35">A$92</f>
         <v>Electricity Supply</v>
@@ -9648,7 +9653,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9690,7 +9695,7 @@
       <c r="S95" s="12"/>
       <c r="T95" s="65"/>
     </row>
-    <row r="96" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9732,7 +9737,7 @@
       <c r="S96" s="12"/>
       <c r="T96" s="65"/>
     </row>
-    <row r="97" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9774,7 +9779,7 @@
       <c r="S97" s="12"/>
       <c r="T97" s="62"/>
     </row>
-    <row r="98" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9816,7 +9821,7 @@
       <c r="S98" s="12"/>
       <c r="T98" s="62"/>
     </row>
-    <row r="99" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9858,7 +9863,7 @@
       <c r="S99" s="12"/>
       <c r="T99" s="65"/>
     </row>
-    <row r="100" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9898,7 +9903,7 @@
       <c r="S100" s="12"/>
       <c r="T100" s="65"/>
     </row>
-    <row r="101" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9938,7 +9943,7 @@
       <c r="S101" s="12"/>
       <c r="T101" s="65"/>
     </row>
-    <row r="102" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
         <v>8</v>
       </c>
@@ -9974,7 +9979,7 @@
       <c r="S102" s="12"/>
       <c r="T102" s="12"/>
     </row>
-    <row r="103" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="67" t="str">
         <f t="shared" ref="A103:C132" si="36">A$102</f>
         <v>Electricity Supply</v>
@@ -10014,7 +10019,7 @@
       <c r="S103" s="12"/>
       <c r="T103" s="12"/>
     </row>
-    <row r="104" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10054,7 +10059,7 @@
       <c r="S104" s="12"/>
       <c r="T104" s="12"/>
     </row>
-    <row r="105" spans="1:20" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A105" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10116,7 +10121,7 @@
       </c>
       <c r="T105" s="12"/>
     </row>
-    <row r="106" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10156,7 +10161,7 @@
       <c r="S106" s="12"/>
       <c r="T106" s="12"/>
     </row>
-    <row r="107" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10196,7 +10201,7 @@
       <c r="S107" s="12"/>
       <c r="T107" s="12"/>
     </row>
-    <row r="108" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10236,7 +10241,7 @@
       <c r="S108" s="12"/>
       <c r="T108" s="12"/>
     </row>
-    <row r="109" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10276,7 +10281,7 @@
       <c r="S109" s="12"/>
       <c r="T109" s="12"/>
     </row>
-    <row r="110" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10316,7 +10321,7 @@
       <c r="S110" s="12"/>
       <c r="T110" s="12"/>
     </row>
-    <row r="111" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10356,7 +10361,7 @@
       <c r="S111" s="12"/>
       <c r="T111" s="12"/>
     </row>
-    <row r="112" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10396,7 +10401,7 @@
       <c r="S112" s="12"/>
       <c r="T112" s="12"/>
     </row>
-    <row r="113" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10436,7 +10441,7 @@
       <c r="S113" s="12"/>
       <c r="T113" s="12"/>
     </row>
-    <row r="114" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10476,7 +10481,7 @@
       <c r="S114" s="12"/>
       <c r="T114" s="12"/>
     </row>
-    <row r="115" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10516,7 +10521,7 @@
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
     </row>
-    <row r="116" spans="1:20" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A116" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10565,7 +10570,7 @@
         <v>331</v>
       </c>
       <c r="P116" s="86" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="Q116" s="12" t="s">
         <v>333</v>
@@ -10578,7 +10583,7 @@
       </c>
       <c r="T116" s="12"/>
     </row>
-    <row r="117" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10618,7 +10623,7 @@
       <c r="S117" s="12"/>
       <c r="T117" s="12"/>
     </row>
-    <row r="118" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10658,7 +10663,7 @@
       <c r="S118" s="12"/>
       <c r="T118" s="12"/>
     </row>
-    <row r="119" spans="1:20" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A119" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10720,7 +10725,7 @@
       </c>
       <c r="T119" s="12"/>
     </row>
-    <row r="120" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10760,7 +10765,7 @@
       <c r="S120" s="12"/>
       <c r="T120" s="12"/>
     </row>
-    <row r="121" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10800,7 +10805,7 @@
       <c r="S121" s="12"/>
       <c r="T121" s="12"/>
     </row>
-    <row r="122" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10840,7 +10845,7 @@
       <c r="S122" s="12"/>
       <c r="T122" s="12"/>
     </row>
-    <row r="123" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A123" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10880,7 +10885,7 @@
       <c r="S123" s="12"/>
       <c r="T123" s="12"/>
     </row>
-    <row r="124" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A124" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10920,7 +10925,7 @@
       <c r="S124" s="12"/>
       <c r="T124" s="12"/>
     </row>
-    <row r="125" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10960,7 +10965,7 @@
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
     </row>
-    <row r="126" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11000,7 +11005,7 @@
       <c r="S126" s="12"/>
       <c r="T126" s="12"/>
     </row>
-    <row r="127" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11040,7 +11045,7 @@
       <c r="S127" s="12"/>
       <c r="T127" s="12"/>
     </row>
-    <row r="128" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11080,7 +11085,7 @@
       <c r="S128" s="12"/>
       <c r="T128" s="12"/>
     </row>
-    <row r="129" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11120,7 +11125,7 @@
       <c r="S129" s="12"/>
       <c r="T129" s="12"/>
     </row>
-    <row r="130" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11160,7 +11165,7 @@
       <c r="S130" s="12"/>
       <c r="T130" s="12"/>
     </row>
-    <row r="131" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11200,7 +11205,7 @@
       <c r="S131" s="12"/>
       <c r="T131" s="12"/>
     </row>
-    <row r="132" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11240,7 +11245,7 @@
       <c r="S132" s="12"/>
       <c r="T132" s="12"/>
     </row>
-    <row r="133" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="67" t="str">
         <f t="shared" ref="A133:C137" si="38">A$102</f>
         <v>Electricity Supply</v>
@@ -11280,7 +11285,7 @@
       <c r="S133" s="12"/>
       <c r="T133" s="12"/>
     </row>
-    <row r="134" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A134" s="67" t="str">
         <f t="shared" si="38"/>
         <v>Electricity Supply</v>
@@ -11320,7 +11325,7 @@
       <c r="S134" s="12"/>
       <c r="T134" s="12"/>
     </row>
-    <row r="135" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="67" t="str">
         <f t="shared" si="38"/>
         <v>Electricity Supply</v>
@@ -11360,7 +11365,7 @@
       <c r="S135" s="12"/>
       <c r="T135" s="12"/>
     </row>
-    <row r="136" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="67" t="str">
         <f t="shared" si="38"/>
         <v>Electricity Supply</v>
@@ -11400,7 +11405,7 @@
       <c r="S136" s="12"/>
       <c r="T136" s="12"/>
     </row>
-    <row r="137" spans="1:20" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A137" s="67" t="str">
         <f t="shared" si="38"/>
         <v>Electricity Supply</v>
@@ -11449,7 +11454,7 @@
         <v>331</v>
       </c>
       <c r="P137" s="86" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="Q137" s="12" t="s">
         <v>333</v>
@@ -11462,7 +11467,7 @@
       </c>
       <c r="T137" s="12"/>
     </row>
-    <row r="138" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
         <v>8</v>
       </c>
@@ -11499,7 +11504,7 @@
         <v>323</v>
       </c>
       <c r="P138" s="86" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="Q138" s="12" t="s">
         <v>325</v>
@@ -11512,7 +11517,7 @@
       </c>
       <c r="T138" s="12"/>
     </row>
-    <row r="139" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A139" s="62" t="s">
         <v>8</v>
       </c>
@@ -11549,7 +11554,7 @@
         <v>45</v>
       </c>
       <c r="P139" s="86" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="Q139" s="62" t="s">
         <v>274</v>
@@ -11562,7 +11567,7 @@
       </c>
       <c r="T139" s="62"/>
     </row>
-    <row r="140" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="62" t="s">
         <v>8</v>
       </c>
@@ -11600,7 +11605,7 @@
       <c r="S140" s="12"/>
       <c r="T140" s="65"/>
     </row>
-    <row r="141" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" s="65" t="str">
         <f t="shared" ref="A141:C149" si="39">A$140</f>
         <v>Electricity Supply</v>
@@ -11642,7 +11647,7 @@
       <c r="S141" s="12"/>
       <c r="T141" s="65"/>
     </row>
-    <row r="142" spans="1:20" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" s="7" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A142" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -11684,10 +11689,10 @@
         <v>2</v>
       </c>
       <c r="O142" s="90" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="P142" s="86" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="Q142" s="62" t="s">
         <v>276</v>
@@ -11700,7 +11705,7 @@
       </c>
       <c r="T142" s="62"/>
     </row>
-    <row r="143" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A143" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -11740,7 +11745,7 @@
       <c r="S143" s="65"/>
       <c r="T143" s="65"/>
     </row>
-    <row r="144" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A144" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -11789,7 +11794,7 @@
         <v>złoty/MWh</v>
       </c>
       <c r="P144" s="86" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="Q144" s="62" t="s">
         <v>276</v>
@@ -11803,7 +11808,7 @@
       </c>
       <c r="T144" s="62"/>
     </row>
-    <row r="145" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A145" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -11852,7 +11857,7 @@
         <v>złoty/MWh</v>
       </c>
       <c r="P145" s="86" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="Q145" s="62" t="s">
         <v>276</v>
@@ -11866,7 +11871,7 @@
       </c>
       <c r="T145" s="62"/>
     </row>
-    <row r="146" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A146" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -11915,7 +11920,7 @@
         <v>złoty/MWh</v>
       </c>
       <c r="P146" s="86" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="Q146" s="62" t="s">
         <v>276</v>
@@ -11929,7 +11934,7 @@
       </c>
       <c r="T146" s="62"/>
     </row>
-    <row r="147" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A147" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -11978,7 +11983,7 @@
         <v>złoty/MWh</v>
       </c>
       <c r="P147" s="86" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="Q147" s="62" t="s">
         <v>276</v>
@@ -11992,7 +11997,7 @@
       </c>
       <c r="T147" s="62"/>
     </row>
-    <row r="148" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A148" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -12032,7 +12037,7 @@
       <c r="S148" s="65"/>
       <c r="T148" s="62"/>
     </row>
-    <row r="149" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A149" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -12081,7 +12086,7 @@
         <v>złoty/MWh</v>
       </c>
       <c r="P149" s="86" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="Q149" s="62" t="s">
         <v>276</v>
@@ -12095,7 +12100,7 @@
       </c>
       <c r="T149" s="62"/>
     </row>
-    <row r="150" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A150" s="62" t="s">
         <v>9</v>
       </c>
@@ -12132,7 +12137,7 @@
         <v>44</v>
       </c>
       <c r="P150" s="86" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="Q150" s="62" t="s">
         <v>278</v>
@@ -12145,7 +12150,7 @@
       </c>
       <c r="T150" s="62"/>
     </row>
-    <row r="151" spans="1:20" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A151" s="62" t="s">
         <v>9</v>
       </c>
@@ -12182,7 +12187,7 @@
         <v>44</v>
       </c>
       <c r="P151" s="86" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="Q151" s="62" t="s">
         <v>280</v>
@@ -12195,7 +12200,7 @@
       </c>
       <c r="T151" s="65"/>
     </row>
-    <row r="152" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A152" s="62" t="s">
         <v>9</v>
       </c>
@@ -12232,7 +12237,7 @@
         <v>44</v>
       </c>
       <c r="P152" s="86" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="Q152" s="62" t="s">
         <v>282</v>
@@ -12245,7 +12250,7 @@
       </c>
       <c r="T152" s="65"/>
     </row>
-    <row r="153" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A153" s="62" t="s">
         <v>9</v>
       </c>
@@ -12287,7 +12292,7 @@
         <v>41</v>
       </c>
       <c r="P153" s="86" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="Q153" s="62" t="s">
         <v>284</v>
@@ -12302,7 +12307,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="154" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A154" s="65" t="str">
         <f>A$153</f>
         <v>Industry</v>
@@ -12351,7 +12356,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P154" s="86" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="Q154" s="62" t="s">
         <v>284</v>
@@ -12368,7 +12373,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A155" s="65" t="str">
         <f t="shared" ref="A155:A160" si="46">A$153</f>
         <v>Industry</v>
@@ -12417,7 +12422,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P155" s="86" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="Q155" s="62" t="s">
         <v>284</v>
@@ -12434,7 +12439,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="156" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A156" s="65" t="str">
         <f t="shared" si="46"/>
         <v>Industry</v>
@@ -12483,7 +12488,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P156" s="86" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="Q156" s="62" t="s">
         <v>284</v>
@@ -12500,7 +12505,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A157" s="65" t="str">
         <f t="shared" si="46"/>
         <v>Industry</v>
@@ -12549,7 +12554,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P157" s="86" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="Q157" s="62" t="s">
         <v>284</v>
@@ -12566,7 +12571,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A158" s="65" t="str">
         <f t="shared" si="46"/>
         <v>Industry</v>
@@ -12615,7 +12620,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P158" s="86" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="Q158" s="62" t="s">
         <v>284</v>
@@ -12632,7 +12637,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="96" x14ac:dyDescent="0.2">
       <c r="A159" s="65" t="str">
         <f t="shared" si="46"/>
         <v>Industry</v>
@@ -12681,7 +12686,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P159" s="86" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="Q159" s="62" t="s">
         <v>284</v>
@@ -12698,7 +12703,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="160" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A160" s="65" t="str">
         <f t="shared" si="46"/>
         <v>Industry</v>
@@ -12747,7 +12752,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P160" s="86" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="Q160" s="62" t="s">
         <v>284</v>
@@ -12764,7 +12769,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="161" spans="1:20" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A161" s="62" t="s">
         <v>9</v>
       </c>
@@ -12814,7 +12819,7 @@
       </c>
       <c r="T161" s="65"/>
     </row>
-    <row r="162" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A162" s="62" t="s">
         <v>9</v>
       </c>
@@ -12851,7 +12856,7 @@
         <v>40</v>
       </c>
       <c r="P162" s="86" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="Q162" s="62" t="s">
         <v>288</v>
@@ -12864,7 +12869,7 @@
       </c>
       <c r="T162" s="62"/>
     </row>
-    <row r="163" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A163" s="62" t="s">
         <v>9</v>
       </c>
@@ -12901,7 +12906,7 @@
         <v>414</v>
       </c>
       <c r="P163" s="86" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="Q163" s="62" t="s">
         <v>288</v>
@@ -12914,7 +12919,7 @@
       </c>
       <c r="T163" s="62"/>
     </row>
-    <row r="164" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A164" s="62" t="s">
         <v>9</v>
       </c>
@@ -12951,7 +12956,7 @@
         <v>44</v>
       </c>
       <c r="P164" s="86" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="Q164" s="62" t="s">
         <v>290</v>
@@ -12964,7 +12969,7 @@
       </c>
       <c r="T164" s="62"/>
     </row>
-    <row r="165" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A165" s="62" t="s">
         <v>9</v>
       </c>
@@ -13001,7 +13006,7 @@
         <v>44</v>
       </c>
       <c r="P165" s="86" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="Q165" s="62" t="s">
         <v>292</v>
@@ -13014,7 +13019,7 @@
       </c>
       <c r="T165" s="62"/>
     </row>
-    <row r="166" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A166" s="62" t="s">
         <v>9</v>
       </c>
@@ -13051,7 +13056,7 @@
         <v>44</v>
       </c>
       <c r="P166" s="86" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="Q166" s="62" t="s">
         <v>294</v>
@@ -13064,7 +13069,7 @@
       </c>
       <c r="T166" s="62"/>
     </row>
-    <row r="167" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A167" s="62" t="s">
         <v>9</v>
       </c>
@@ -13101,7 +13106,7 @@
         <v>44</v>
       </c>
       <c r="P167" s="86" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="Q167" s="62" t="s">
         <v>296</v>
@@ -13114,7 +13119,7 @@
       </c>
       <c r="T167" s="62"/>
     </row>
-    <row r="168" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="80" x14ac:dyDescent="0.2">
       <c r="A168" s="62" t="s">
         <v>174</v>
       </c>
@@ -13151,7 +13156,7 @@
         <v>44</v>
       </c>
       <c r="P168" s="86" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="Q168" s="62" t="s">
         <v>298</v>
@@ -13166,7 +13171,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="62" t="s">
         <v>174</v>
       </c>
@@ -13202,7 +13207,7 @@
       <c r="S169" s="62"/>
       <c r="T169" s="62"/>
     </row>
-    <row r="170" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A170" s="62" t="s">
         <v>174</v>
       </c>
@@ -13236,7 +13241,7 @@
       <c r="S170" s="62"/>
       <c r="T170" s="62"/>
     </row>
-    <row r="171" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A171" s="62" t="s">
         <v>174</v>
       </c>
@@ -13286,7 +13291,7 @@
       </c>
       <c r="T171" s="62"/>
     </row>
-    <row r="172" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A172" s="62" t="s">
         <v>174</v>
       </c>
@@ -13323,7 +13328,7 @@
         <v>44</v>
       </c>
       <c r="P172" s="86" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="Q172" s="62" t="s">
         <v>302</v>
@@ -13336,7 +13341,7 @@
       </c>
       <c r="T172" s="62"/>
     </row>
-    <row r="173" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A173" s="62" t="s">
         <v>174</v>
       </c>
@@ -13386,7 +13391,7 @@
       </c>
       <c r="T173" s="62"/>
     </row>
-    <row r="174" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A174" s="62" t="s">
         <v>174</v>
       </c>
@@ -13423,7 +13428,7 @@
         <v>44</v>
       </c>
       <c r="P174" s="86" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="Q174" s="62" t="s">
         <v>306</v>
@@ -13436,7 +13441,7 @@
       </c>
       <c r="T174" s="62"/>
     </row>
-    <row r="175" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="62" t="s">
         <v>174</v>
       </c>
@@ -13470,7 +13475,7 @@
       <c r="S175" s="62"/>
       <c r="T175" s="62"/>
     </row>
-    <row r="176" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A176" s="62" t="s">
         <v>174</v>
       </c>
@@ -13520,7 +13525,7 @@
       </c>
       <c r="T176" s="62"/>
     </row>
-    <row r="177" spans="1:20" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="s">
         <v>481</v>
       </c>
@@ -13557,7 +13562,7 @@
         <v>74</v>
       </c>
       <c r="P177" s="90" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="Q177" s="12" t="s">
         <v>314</v>
@@ -13570,7 +13575,7 @@
       </c>
       <c r="T177" s="12"/>
     </row>
-    <row r="178" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
         <v>481</v>
       </c>
@@ -13607,7 +13612,7 @@
         <v>40</v>
       </c>
       <c r="P178" s="90" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="Q178" s="12" t="s">
         <v>482</v>
@@ -13620,7 +13625,7 @@
       </c>
       <c r="T178" s="12"/>
     </row>
-    <row r="179" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A179" s="62" t="s">
         <v>10</v>
       </c>
@@ -13657,7 +13662,7 @@
         <v>44</v>
       </c>
       <c r="P179" s="86" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="Q179" s="62" t="s">
         <v>310</v>
@@ -13670,7 +13675,7 @@
       </c>
       <c r="T179" s="62"/>
     </row>
-    <row r="180" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A180" s="62" t="s">
         <v>10</v>
       </c>
@@ -13708,10 +13713,10 @@
         <v>5</v>
       </c>
       <c r="O180" s="86" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="P180" s="86" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="Q180" s="62" t="s">
         <v>312</v>
@@ -13726,7 +13731,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="181" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A181" s="65" t="str">
         <f>A$180</f>
         <v>Cross-Sector</v>
@@ -13775,7 +13780,7 @@
         <v>złoty/metric ton CO2e</v>
       </c>
       <c r="P181" s="86" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="Q181" s="65" t="str">
         <f t="shared" ref="Q181:R184" si="50">Q$180</f>
@@ -13788,7 +13793,7 @@
       <c r="S181" s="12"/>
       <c r="T181" s="65"/>
     </row>
-    <row r="182" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A182" s="65" t="str">
         <f t="shared" ref="A182:C186" si="51">A$180</f>
         <v>Cross-Sector</v>
@@ -13837,7 +13842,7 @@
         <v>złoty/metric ton CO2e</v>
       </c>
       <c r="P182" s="86" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="Q182" s="65" t="str">
         <f t="shared" si="50"/>
@@ -13850,7 +13855,7 @@
       <c r="S182" s="12"/>
       <c r="T182" s="65"/>
     </row>
-    <row r="183" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A183" s="65" t="str">
         <f t="shared" si="51"/>
         <v>Cross-Sector</v>
@@ -13899,7 +13904,7 @@
         <v>złoty/metric ton CO2e</v>
       </c>
       <c r="P183" s="86" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="Q183" s="65" t="str">
         <f t="shared" si="50"/>
@@ -13912,7 +13917,7 @@
       <c r="S183" s="12"/>
       <c r="T183" s="65"/>
     </row>
-    <row r="184" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A184" s="65" t="str">
         <f t="shared" si="51"/>
         <v>Cross-Sector</v>
@@ -13961,7 +13966,7 @@
         <v>złoty/metric ton CO2e</v>
       </c>
       <c r="P184" s="86" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="Q184" s="65" t="str">
         <f t="shared" si="50"/>
@@ -13974,7 +13979,7 @@
       <c r="S184" s="12"/>
       <c r="T184" s="65"/>
     </row>
-    <row r="185" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="65" t="str">
         <f t="shared" si="51"/>
         <v>Cross-Sector</v>
@@ -14014,7 +14019,7 @@
       <c r="S185" s="12"/>
       <c r="T185" s="65"/>
     </row>
-    <row r="186" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="65" t="str">
         <f t="shared" si="51"/>
         <v>Cross-Sector</v>
@@ -14054,7 +14059,7 @@
       <c r="S186" s="12"/>
       <c r="T186" s="65"/>
     </row>
-    <row r="187" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="62" t="s">
         <v>10</v>
       </c>
@@ -14092,7 +14097,7 @@
       <c r="S187" s="65"/>
       <c r="T187" s="65"/>
     </row>
-    <row r="188" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="65" t="str">
         <f>A$187</f>
         <v>Cross-Sector</v>
@@ -14137,7 +14142,7 @@
         <v>183</v>
       </c>
       <c r="P188" s="90" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q188" s="12" t="s">
         <v>316</v>
@@ -14150,7 +14155,7 @@
       </c>
       <c r="T188" s="65"/>
     </row>
-    <row r="189" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" s="65" t="str">
         <f t="shared" ref="A189:A202" si="54">A$187</f>
         <v>Cross-Sector</v>
@@ -14199,7 +14204,7 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="P189" s="90" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="Q189" s="12" t="s">
         <v>316</v>
@@ -14212,7 +14217,7 @@
       </c>
       <c r="T189" s="65"/>
     </row>
-    <row r="190" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A190" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14274,7 +14279,7 @@
       </c>
       <c r="T190" s="65"/>
     </row>
-    <row r="191" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14316,7 +14321,7 @@
       <c r="S191" s="62"/>
       <c r="T191" s="65"/>
     </row>
-    <row r="192" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14358,7 +14363,7 @@
       <c r="S192" s="62"/>
       <c r="T192" s="65"/>
     </row>
-    <row r="193" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A193" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14420,7 +14425,7 @@
       </c>
       <c r="T193" s="65"/>
     </row>
-    <row r="194" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14462,7 +14467,7 @@
       <c r="S194" s="65"/>
       <c r="T194" s="65"/>
     </row>
-    <row r="195" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A195" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14524,7 +14529,7 @@
       </c>
       <c r="T195" s="65"/>
     </row>
-    <row r="196" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A196" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14586,7 +14591,7 @@
       </c>
       <c r="T196" s="65"/>
     </row>
-    <row r="197" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14628,7 +14633,7 @@
       <c r="S197" s="65"/>
       <c r="T197" s="65"/>
     </row>
-    <row r="198" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14670,7 +14675,7 @@
       <c r="S198" s="65"/>
       <c r="T198" s="65"/>
     </row>
-    <row r="199" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14710,7 +14715,7 @@
       <c r="S199" s="62"/>
       <c r="T199" s="65"/>
     </row>
-    <row r="200" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14752,7 +14757,7 @@
       <c r="S200" s="65"/>
       <c r="T200" s="65"/>
     </row>
-    <row r="201" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14792,7 +14797,7 @@
       <c r="S201" s="65"/>
       <c r="T201" s="65"/>
     </row>
-    <row r="202" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14832,7 +14837,7 @@
       <c r="S202" s="65"/>
       <c r="T202" s="65"/>
     </row>
-    <row r="203" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" s="12" t="s">
         <v>10</v>
       </c>
@@ -14864,7 +14869,7 @@
       <c r="S203" s="62"/>
       <c r="T203" s="12"/>
     </row>
-    <row r="204" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A204" s="62" t="s">
         <v>10</v>
       </c>
@@ -14905,7 +14910,7 @@
         <v>184</v>
       </c>
       <c r="P204" s="86" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Q204" s="12" t="s">
         <v>318</v>
@@ -14918,7 +14923,7 @@
       </c>
       <c r="T204" s="65"/>
     </row>
-    <row r="205" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A205" s="68" t="str">
         <f t="shared" ref="A205:C218" si="57">A$204</f>
         <v>Cross-Sector</v>
@@ -14967,7 +14972,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P205" s="86" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="Q205" s="75" t="str">
         <f t="shared" ref="Q205:R206" si="60">Q$204</f>
@@ -14983,7 +14988,7 @@
       </c>
       <c r="T205" s="65"/>
     </row>
-    <row r="206" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A206" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15032,7 +15037,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P206" s="86" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="Q206" s="75" t="str">
         <f t="shared" si="60"/>
@@ -15048,7 +15053,7 @@
       </c>
       <c r="T206" s="65"/>
     </row>
-    <row r="207" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15090,7 +15095,7 @@
       <c r="S207" s="65"/>
       <c r="T207" s="65"/>
     </row>
-    <row r="208" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15132,7 +15137,7 @@
       <c r="S208" s="65"/>
       <c r="T208" s="65"/>
     </row>
-    <row r="209" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15174,7 +15179,7 @@
       <c r="S209" s="65"/>
       <c r="T209" s="65"/>
     </row>
-    <row r="210" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15216,7 +15221,7 @@
       <c r="S210" s="65"/>
       <c r="T210" s="65"/>
     </row>
-    <row r="211" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15258,7 +15263,7 @@
       <c r="S211" s="65"/>
       <c r="T211" s="65"/>
     </row>
-    <row r="212" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A212" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15307,7 +15312,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P212" s="86" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="Q212" s="75" t="str">
         <f t="shared" ref="Q212:R213" si="62">Q$204</f>
@@ -15323,7 +15328,7 @@
       </c>
       <c r="T212" s="65"/>
     </row>
-    <row r="213" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A213" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15372,7 +15377,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P213" s="86" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="Q213" s="75" t="str">
         <f t="shared" si="62"/>
@@ -15388,7 +15393,7 @@
       </c>
       <c r="T213" s="65"/>
     </row>
-    <row r="214" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15430,7 +15435,7 @@
       <c r="S214" s="65"/>
       <c r="T214" s="65"/>
     </row>
-    <row r="215" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15472,7 +15477,7 @@
       <c r="S215" s="65"/>
       <c r="T215" s="65"/>
     </row>
-    <row r="216" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15512,7 +15517,7 @@
       <c r="S216" s="65"/>
       <c r="T216" s="62"/>
     </row>
-    <row r="217" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15554,7 +15559,7 @@
       <c r="S217" s="62"/>
       <c r="T217" s="62"/>
     </row>
-    <row r="218" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A218" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15603,7 +15608,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P218" s="86" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="Q218" s="98" t="str">
         <f t="shared" si="63"/>
@@ -15619,7 +15624,7 @@
       </c>
       <c r="T218" s="62"/>
     </row>
-    <row r="219" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A219" s="62" t="s">
         <v>35</v>
       </c>
@@ -15673,7 +15678,7 @@
       </c>
       <c r="T219" s="62"/>
     </row>
-    <row r="220" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A220" s="65" t="str">
         <f t="shared" ref="A220:A225" si="64">A$219</f>
         <v>R&amp;D</v>
@@ -15735,7 +15740,7 @@
       </c>
       <c r="T220" s="62"/>
     </row>
-    <row r="221" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A221" s="65" t="str">
         <f t="shared" si="64"/>
         <v>R&amp;D</v>
@@ -15797,7 +15802,7 @@
       </c>
       <c r="T221" s="62"/>
     </row>
-    <row r="222" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A222" s="65" t="str">
         <f t="shared" si="64"/>
         <v>R&amp;D</v>
@@ -15859,7 +15864,7 @@
       </c>
       <c r="T222" s="62"/>
     </row>
-    <row r="223" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A223" s="65" t="str">
         <f t="shared" si="64"/>
         <v>R&amp;D</v>
@@ -15921,7 +15926,7 @@
       </c>
       <c r="T223" s="62"/>
     </row>
-    <row r="224" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A224" s="65" t="str">
         <f t="shared" si="64"/>
         <v>R&amp;D</v>
@@ -15983,7 +15988,7 @@
       </c>
       <c r="T224" s="62"/>
     </row>
-    <row r="225" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A225" s="65" t="str">
         <f t="shared" si="64"/>
         <v>R&amp;D</v>
@@ -16038,7 +16043,7 @@
       </c>
       <c r="T225" s="62"/>
     </row>
-    <row r="226" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A226" s="62" t="s">
         <v>35</v>
       </c>
@@ -16094,7 +16099,7 @@
       </c>
       <c r="T226" s="62"/>
     </row>
-    <row r="227" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A227" s="65" t="str">
         <f>A$226</f>
         <v>R&amp;D</v>
@@ -16156,7 +16161,7 @@
       </c>
       <c r="T227" s="62"/>
     </row>
-    <row r="228" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A228" s="65" t="str">
         <f t="shared" ref="A228:C235" si="70">A$226</f>
         <v>R&amp;D</v>
@@ -16218,7 +16223,7 @@
       </c>
       <c r="T228" s="62"/>
     </row>
-    <row r="229" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A229" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16280,7 +16285,7 @@
       </c>
       <c r="T229" s="62"/>
     </row>
-    <row r="230" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A230" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16342,7 +16347,7 @@
       </c>
       <c r="T230" s="62"/>
     </row>
-    <row r="231" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A231" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16404,7 +16409,7 @@
       </c>
       <c r="T231" s="62"/>
     </row>
-    <row r="232" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A232" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16466,7 +16471,7 @@
       </c>
       <c r="T232" s="62"/>
     </row>
-    <row r="233" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A233" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16528,7 +16533,7 @@
       </c>
       <c r="T233" s="62"/>
     </row>
-    <row r="234" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A234" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16590,7 +16595,7 @@
       </c>
       <c r="T234" s="62"/>
     </row>
-    <row r="235" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A235" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16652,7 +16657,7 @@
       </c>
       <c r="T235" s="62"/>
     </row>
-    <row r="236" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A236" s="62" t="s">
         <v>35</v>
       </c>
@@ -16708,7 +16713,7 @@
       </c>
       <c r="T236" s="62"/>
     </row>
-    <row r="237" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A237" s="65" t="str">
         <f>A$236</f>
         <v>R&amp;D</v>
@@ -16770,7 +16775,7 @@
       </c>
       <c r="T237" s="62"/>
     </row>
-    <row r="238" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A238" s="65" t="str">
         <f t="shared" ref="A238:A243" si="73">A$236</f>
         <v>R&amp;D</v>
@@ -16832,7 +16837,7 @@
       </c>
       <c r="T238" s="62"/>
     </row>
-    <row r="239" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A239" s="65" t="str">
         <f t="shared" si="73"/>
         <v>R&amp;D</v>
@@ -16894,7 +16899,7 @@
       </c>
       <c r="T239" s="62"/>
     </row>
-    <row r="240" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A240" s="65" t="str">
         <f t="shared" si="73"/>
         <v>R&amp;D</v>
@@ -16956,7 +16961,7 @@
       </c>
       <c r="T240" s="62"/>
     </row>
-    <row r="241" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A241" s="65" t="str">
         <f t="shared" si="73"/>
         <v>R&amp;D</v>
@@ -17018,7 +17023,7 @@
       </c>
       <c r="T241" s="62"/>
     </row>
-    <row r="242" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A242" s="65" t="str">
         <f t="shared" si="73"/>
         <v>R&amp;D</v>
@@ -17080,7 +17085,7 @@
       </c>
       <c r="T242" s="62"/>
     </row>
-    <row r="243" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A243" s="65" t="str">
         <f t="shared" si="73"/>
         <v>R&amp;D</v>
@@ -17142,7 +17147,7 @@
       </c>
       <c r="T243" s="62"/>
     </row>
-    <row r="244" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A244" s="12" t="s">
         <v>35</v>
       </c>
@@ -17198,7 +17203,7 @@
       </c>
       <c r="T244" s="62"/>
     </row>
-    <row r="245" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A245" s="65" t="str">
         <f>A$244</f>
         <v>R&amp;D</v>
@@ -17260,7 +17265,7 @@
       </c>
       <c r="T245" s="62"/>
     </row>
-    <row r="246" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A246" s="65" t="str">
         <f>A$244</f>
         <v>R&amp;D</v>
@@ -17322,7 +17327,7 @@
       </c>
       <c r="T246" s="62"/>
     </row>
-    <row r="247" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A247" s="65" t="str">
         <f>A$244</f>
         <v>R&amp;D</v>
@@ -17384,7 +17389,7 @@
       </c>
       <c r="T247" s="62"/>
     </row>
-    <row r="248" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A248" s="65" t="str">
         <f>A$244</f>
         <v>R&amp;D</v>
@@ -17446,7 +17451,7 @@
       </c>
       <c r="T248" s="62"/>
     </row>
-    <row r="249" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A249" s="65" t="str">
         <f>A$244</f>
         <v>R&amp;D</v>
@@ -17508,7 +17513,7 @@
       </c>
       <c r="T249" s="62"/>
     </row>
-    <row r="250" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A250" s="62" t="s">
         <v>35</v>
       </c>
@@ -17562,7 +17567,7 @@
       </c>
       <c r="T250" s="62"/>
     </row>
-    <row r="251" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A251" s="65" t="str">
         <f>A$250</f>
         <v>R&amp;D</v>
@@ -17624,7 +17629,7 @@
       </c>
       <c r="T251" s="62"/>
     </row>
-    <row r="252" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="65" t="str">
         <f>A$250</f>
         <v>R&amp;D</v>
@@ -17664,7 +17669,7 @@
       <c r="S252" s="62"/>
       <c r="T252" s="62"/>
     </row>
-    <row r="253" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A253" s="65" t="str">
         <f>A$250</f>
         <v>R&amp;D</v>
@@ -17726,7 +17731,7 @@
       </c>
       <c r="T253" s="62"/>
     </row>
-    <row r="254" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A254" s="65" t="str">
         <f>A$250</f>
         <v>R&amp;D</v>
@@ -17788,7 +17793,7 @@
       </c>
       <c r="T254" s="62"/>
     </row>
-    <row r="255" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A255" s="65" t="str">
         <f>A$250</f>
         <v>R&amp;D</v>
@@ -17850,7 +17855,7 @@
       </c>
       <c r="T255" s="62"/>
     </row>
-    <row r="256" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A256" s="62" t="s">
         <v>35</v>
       </c>
@@ -17904,7 +17909,7 @@
       </c>
       <c r="T256" s="62"/>
     </row>
-    <row r="257" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A257" s="62" t="s">
         <v>35</v>
       </c>
@@ -17960,7 +17965,7 @@
       </c>
       <c r="T257" s="62"/>
     </row>
-    <row r="258" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A258" s="65" t="str">
         <f>A$257</f>
         <v>R&amp;D</v>
@@ -18022,7 +18027,7 @@
       </c>
       <c r="T258" s="62"/>
     </row>
-    <row r="259" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A259" s="65" t="str">
         <f t="shared" ref="A259:C266" si="81">A$257</f>
         <v>R&amp;D</v>
@@ -18084,7 +18089,7 @@
       </c>
       <c r="T259" s="62"/>
     </row>
-    <row r="260" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A260" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18126,7 +18131,7 @@
       <c r="S260" s="62"/>
       <c r="T260" s="62"/>
     </row>
-    <row r="261" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A261" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18168,7 +18173,7 @@
       <c r="S261" s="62"/>
       <c r="T261" s="62"/>
     </row>
-    <row r="262" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18210,7 +18215,7 @@
       <c r="S262" s="62"/>
       <c r="T262" s="62"/>
     </row>
-    <row r="263" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18252,7 +18257,7 @@
       <c r="S263" s="62"/>
       <c r="T263" s="62"/>
     </row>
-    <row r="264" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A264" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18314,7 +18319,7 @@
       </c>
       <c r="T264" s="62"/>
     </row>
-    <row r="265" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A265" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18376,7 +18381,7 @@
       </c>
       <c r="T265" s="62"/>
     </row>
-    <row r="266" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18416,7 +18421,7 @@
       <c r="S266" s="62"/>
       <c r="T266" s="62"/>
     </row>
-    <row r="267" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A267" s="62" t="s">
         <v>35</v>
       </c>
@@ -18472,7 +18477,7 @@
       </c>
       <c r="T267" s="62"/>
     </row>
-    <row r="268" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A268" s="65" t="str">
         <f>A$267</f>
         <v>R&amp;D</v>
@@ -18534,7 +18539,7 @@
       </c>
       <c r="T268" s="62"/>
     </row>
-    <row r="269" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A269" s="65" t="str">
         <f t="shared" ref="A269:A274" si="85">A$267</f>
         <v>R&amp;D</v>
@@ -18596,7 +18601,7 @@
       </c>
       <c r="T269" s="62"/>
     </row>
-    <row r="270" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A270" s="65" t="str">
         <f t="shared" si="85"/>
         <v>R&amp;D</v>
@@ -18658,7 +18663,7 @@
       </c>
       <c r="T270" s="62"/>
     </row>
-    <row r="271" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A271" s="65" t="str">
         <f t="shared" si="85"/>
         <v>R&amp;D</v>
@@ -18720,7 +18725,7 @@
       </c>
       <c r="T271" s="62"/>
     </row>
-    <row r="272" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A272" s="65" t="str">
         <f t="shared" si="85"/>
         <v>R&amp;D</v>
@@ -18782,7 +18787,7 @@
       </c>
       <c r="T272" s="62"/>
     </row>
-    <row r="273" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A273" s="65" t="str">
         <f t="shared" si="85"/>
         <v>R&amp;D</v>
@@ -18843,7 +18848,7 @@
       </c>
       <c r="T273" s="62"/>
     </row>
-    <row r="274" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A274" s="65" t="str">
         <f t="shared" si="85"/>
         <v>R&amp;D</v>
@@ -18904,7 +18909,7 @@
       </c>
       <c r="T274" s="62"/>
     </row>
-    <row r="275" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A275" s="62" t="s">
         <v>35</v>
       </c>
@@ -18959,7 +18964,7 @@
       </c>
       <c r="T275" s="62"/>
     </row>
-    <row r="276" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A276" s="65" t="str">
         <f>A$275</f>
         <v>R&amp;D</v>
@@ -19020,7 +19025,7 @@
       </c>
       <c r="T276" s="62"/>
     </row>
-    <row r="277" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A277" s="65" t="str">
         <f>A$275</f>
         <v>R&amp;D</v>
@@ -19081,7 +19086,7 @@
       </c>
       <c r="T277" s="62"/>
     </row>
-    <row r="278" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A278" s="65" t="str">
         <f>A$275</f>
         <v>R&amp;D</v>
@@ -19142,7 +19147,7 @@
       </c>
       <c r="T278" s="62"/>
     </row>
-    <row r="279" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="112" x14ac:dyDescent="0.2">
       <c r="A279" s="65" t="str">
         <f>A$275</f>
         <v>R&amp;D</v>
@@ -19203,7 +19208,7 @@
       </c>
       <c r="T279" s="62"/>
     </row>
-    <row r="280" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="128" x14ac:dyDescent="0.2">
       <c r="A280" s="65" t="str">
         <f>A$275</f>
         <v>R&amp;D</v>
@@ -19265,7 +19270,7 @@
       <c r="T280" s="62"/>
     </row>
   </sheetData>
-  <sortState ref="A119:I139">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A119:I139">
     <sortCondition ref="B119:B139"/>
   </sortState>
   <conditionalFormatting sqref="I267:I1048576 I1:I16 I18:I43 I45:I46 I48:I77 I79:I93 I95:I104 I106:I170 I172 I174:I175 I177:I189 I191:I192 I194 I197:I265">
@@ -19279,7 +19284,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T168" r:id="rId1" display="https://www.fas.org/sgp/crs/misc/R40562.pdf, p.3, paragraph 1"/>
+    <hyperlink ref="T168" r:id="rId1" display="https://www.fas.org/sgp/crs/misc/R40562.pdf, p.3, paragraph 1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -19288,7 +19293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19296,24 +19301,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="88" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="88" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="37.5" style="88" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="69" style="5" customWidth="1"/>
-    <col min="7" max="8" width="34.28515625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="7" max="8" width="34.33203125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="109" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B1" s="110" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C1" s="57" t="s">
         <v>77</v>
@@ -19328,18 +19333,18 @@
         <v>78</v>
       </c>
       <c r="G1" s="110" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="H1" s="85" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="111" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C2" s="62" t="s">
         <v>80</v>
@@ -19356,12 +19361,12 @@
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="111" t="s">
+        <v>815</v>
+      </c>
+      <c r="B3" s="112" t="s">
         <v>817</v>
-      </c>
-      <c r="B3" s="112" t="s">
-        <v>819</v>
       </c>
       <c r="C3" s="62" t="s">
         <v>82</v>
@@ -19373,7 +19378,7 @@
         <v>493</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>702</v>
@@ -19382,12 +19387,12 @@
         <v>703</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="111" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B4" s="112" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>82</v>
@@ -19399,7 +19404,7 @@
         <v>493</v>
       </c>
       <c r="F4" s="62" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G4" s="62" t="s">
         <v>694</v>
@@ -19408,12 +19413,12 @@
         <v>695</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="112" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C5" s="108" t="s">
         <v>80</v>
@@ -19425,15 +19430,15 @@
         <v>493</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="112" t="s">
+        <v>818</v>
+      </c>
+      <c r="B6" s="111" t="s">
         <v>820</v>
-      </c>
-      <c r="B6" s="111" t="s">
-        <v>822</v>
       </c>
       <c r="C6" s="108" t="s">
         <v>80</v>
@@ -19445,15 +19450,15 @@
         <v>493</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="112" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B7" s="111" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C7" s="108" t="s">
         <v>80</v>
@@ -19465,15 +19470,15 @@
         <v>493</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="112" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C8" s="108" t="s">
         <v>80</v>
@@ -19485,15 +19490,15 @@
         <v>493</v>
       </c>
       <c r="F8" s="108" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="112" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C9" s="108" t="s">
         <v>80</v>
@@ -19502,18 +19507,18 @@
         <v>81</v>
       </c>
       <c r="E9" s="108" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F9" s="108" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="112" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B10" s="111" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C10" s="108" t="s">
         <v>80</v>
@@ -19522,18 +19527,18 @@
         <v>81</v>
       </c>
       <c r="E10" s="108" t="s">
+        <v>851</v>
+      </c>
+      <c r="F10" s="108" t="s">
         <v>853</v>
       </c>
-      <c r="F10" s="108" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="112" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C11" s="108" t="s">
         <v>80</v>
@@ -19542,18 +19547,18 @@
         <v>81</v>
       </c>
       <c r="E11" s="108" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="112" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C12" s="108" t="s">
         <v>80</v>
@@ -19562,18 +19567,18 @@
         <v>81</v>
       </c>
       <c r="E12" s="108" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F12" s="108" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="112" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B13" s="111" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C13" s="108" t="s">
         <v>80</v>
@@ -19585,15 +19590,15 @@
         <v>493</v>
       </c>
       <c r="F13" s="108" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="112" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B14" s="111" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C14" s="108" t="s">
         <v>80</v>
@@ -19602,18 +19607,18 @@
         <v>81</v>
       </c>
       <c r="E14" s="108" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F14" s="108" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="112" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C15" s="108" t="s">
         <v>80</v>
@@ -19625,15 +19630,15 @@
         <v>493</v>
       </c>
       <c r="F15" s="108" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="112" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B16" s="111" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C16" s="108" t="s">
         <v>80</v>
@@ -19645,10 +19650,10 @@
         <v>493</v>
       </c>
       <c r="F16" s="108" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="112" t="s">
         <v>497</v>
       </c>
@@ -19668,12 +19673,12 @@
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="112" t="s">
         <v>498</v>
       </c>
       <c r="B18" s="112" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C18" s="62" t="s">
         <v>82</v>
@@ -19685,17 +19690,17 @@
         <v>701</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G18" s="62"/>
       <c r="H18" s="62"/>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="112" t="s">
         <v>498</v>
       </c>
       <c r="B19" s="112" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C19" s="62" t="s">
         <v>82</v>
@@ -19707,17 +19712,17 @@
         <v>701</v>
       </c>
       <c r="F19" s="62" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G19" s="62"/>
       <c r="H19" s="62"/>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="112" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B20" s="112" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C20" s="62" t="s">
         <v>82</v>
@@ -19729,19 +19734,19 @@
         <v>699</v>
       </c>
       <c r="F20" s="62" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G20" s="62" t="s">
         <v>662</v>
       </c>
       <c r="H20" s="62"/>
     </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="112" t="s">
+        <v>833</v>
+      </c>
+      <c r="B21" s="112" t="s">
         <v>835</v>
-      </c>
-      <c r="B21" s="112" t="s">
-        <v>837</v>
       </c>
       <c r="C21" s="62" t="s">
         <v>82</v>
@@ -19753,19 +19758,19 @@
         <v>699</v>
       </c>
       <c r="F21" s="62" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G21" s="62" t="s">
         <v>662</v>
       </c>
       <c r="H21" s="62"/>
     </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="112" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B22" s="112" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C22" s="62" t="s">
         <v>82</v>
@@ -19777,7 +19782,7 @@
         <v>700</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G22" s="62" t="s">
         <v>409</v>
@@ -19786,12 +19791,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="112" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B23" s="112" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>80</v>
@@ -19808,12 +19813,12 @@
       <c r="G23" s="62"/>
       <c r="H23" s="62"/>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="112" t="s">
+        <v>837</v>
+      </c>
+      <c r="B24" s="112" t="s">
         <v>839</v>
-      </c>
-      <c r="B24" s="112" t="s">
-        <v>841</v>
       </c>
       <c r="C24" s="62" t="s">
         <v>80</v>
@@ -19830,12 +19835,12 @@
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
     </row>
-    <row r="25" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A25" s="112" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C25" s="62" t="s">
         <v>82</v>
@@ -19847,7 +19852,7 @@
         <v>495</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G25" s="62" t="s">
         <v>689</v>
@@ -19856,12 +19861,12 @@
         <v>690</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="144" x14ac:dyDescent="0.2">
       <c r="A26" s="112" t="s">
+        <v>840</v>
+      </c>
+      <c r="B26" s="112" t="s">
         <v>842</v>
-      </c>
-      <c r="B26" s="112" t="s">
-        <v>844</v>
       </c>
       <c r="C26" s="62" t="s">
         <v>82</v>
@@ -19873,7 +19878,7 @@
         <v>495</v>
       </c>
       <c r="F26" s="62" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G26" s="62" t="s">
         <v>691</v>
@@ -19882,12 +19887,12 @@
         <v>692</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="160" x14ac:dyDescent="0.2">
       <c r="A27" s="112" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B27" s="112" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C27" s="62" t="s">
         <v>82</v>
@@ -19899,7 +19904,7 @@
         <v>496</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G27" s="62" t="s">
         <v>689</v>
@@ -19908,12 +19913,12 @@
         <v>690</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="176" x14ac:dyDescent="0.2">
       <c r="A28" s="112" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B28" s="112" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C28" s="62" t="s">
         <v>82</v>
@@ -19925,7 +19930,7 @@
         <v>496</v>
       </c>
       <c r="F28" s="62" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G28" s="62" t="s">
         <v>691</v>
@@ -19934,12 +19939,12 @@
         <v>692</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" s="112" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B29" s="112" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C29" s="62" t="s">
         <v>82</v>
@@ -19951,7 +19956,7 @@
         <v>696</v>
       </c>
       <c r="F29" s="62" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G29" s="62" t="s">
         <v>697</v>
@@ -19960,7 +19965,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="112" t="s">
         <v>661</v>
       </c>
@@ -19977,11 +19982,11 @@
         <v>495</v>
       </c>
       <c r="F30" s="108" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G30" s="108"/>
     </row>
-    <row r="31" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="112" t="s">
         <v>661</v>
       </c>
@@ -19995,14 +20000,14 @@
         <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F31" s="108" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G31" s="108"/>
     </row>
-    <row r="32" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="112" t="s">
         <v>661</v>
       </c>
@@ -20016,14 +20021,14 @@
         <v>81</v>
       </c>
       <c r="E32" t="s">
+        <v>863</v>
+      </c>
+      <c r="F32" s="108" t="s">
         <v>865</v>
       </c>
-      <c r="F32" s="108" t="s">
-        <v>867</v>
-      </c>
       <c r="G32" s="108"/>
     </row>
-    <row r="33" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="112" t="s">
         <v>661</v>
       </c>
@@ -20037,19 +20042,19 @@
         <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F33" s="108" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G33" s="108"/>
     </row>
-    <row r="34" spans="1:7" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="112" t="s">
         <v>661</v>
       </c>
       <c r="B34" s="112" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C34" s="108" t="s">
         <v>80</v>
@@ -20058,34 +20063,34 @@
         <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F34" s="108" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G34" s="108"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="112"/>
       <c r="B35" s="112"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="112"/>
       <c r="B36" s="112"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="112"/>
       <c r="B37" s="112"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="112"/>
       <c r="B38" s="112"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="112"/>
       <c r="B39" s="112"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="112"/>
       <c r="B40" s="112"/>
     </row>
@@ -20096,19 +20101,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36" style="11" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="11"/>
+    <col min="2" max="2" width="34.1640625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>89</v>
       </c>
@@ -20116,7 +20123,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>180</v>
       </c>
@@ -20124,13 +20131,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
-        <v>704</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>705</v>
-      </c>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20139,22 +20142,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="73.42578125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="11"/>
+    <col min="1" max="1" width="49.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="73.5" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>461</v>
       </c>
@@ -20171,9 +20174,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B2" s="88">
         <v>2030</v>
@@ -20185,12 +20188,12 @@
         <v>329.16699</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B3" s="88">
         <v>2050</v>
@@ -20202,7 +20205,7 @@
         <v>212.36579999999998</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -20212,45 +20215,45 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AM194"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="79.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="11" customWidth="1"/>
     <col min="4" max="4" width="22" style="11" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.42578125" style="11" customWidth="1"/>
-    <col min="11" max="16" width="9.140625" style="11"/>
-    <col min="17" max="17" width="25.85546875" style="11" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="11" customWidth="1"/>
-    <col min="20" max="21" width="12.42578125" style="11" customWidth="1"/>
-    <col min="22" max="23" width="16.28515625" style="11" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="11"/>
+    <col min="5" max="5" width="19.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5" style="11" customWidth="1"/>
+    <col min="11" max="16" width="9.1640625" style="11"/>
+    <col min="17" max="17" width="25.83203125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="11" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" style="11" customWidth="1"/>
+    <col min="20" max="21" width="12.5" style="11" customWidth="1"/>
+    <col min="22" max="23" width="16.33203125" style="11" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="118" t="s">
         <v>202</v>
       </c>
@@ -20259,12 +20262,12 @@
       <c r="D2" s="118"/>
       <c r="E2" s="118"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>155400</v>
       </c>
@@ -20272,7 +20275,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="118" t="s">
         <v>205</v>
       </c>
@@ -20281,12 +20284,12 @@
       <c r="D21" s="118"/>
       <c r="E21" s="118"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>100800</v>
       </c>
@@ -20294,7 +20297,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="118" t="s">
         <v>206</v>
       </c>
@@ -20303,12 +20306,12 @@
       <c r="D40" s="118"/>
       <c r="E40" s="118"/>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>194000</v>
       </c>
@@ -20316,16 +20319,16 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="114" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-    </row>
-    <row r="85" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
+    </row>
+    <row r="85" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>501</v>
       </c>
@@ -20372,7 +20375,7 @@
       <c r="AL85" s="11"/>
       <c r="AM85" s="11"/>
     </row>
-    <row r="86" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>503</v>
       </c>
@@ -20417,8 +20420,8 @@
       <c r="AL86" s="11"/>
       <c r="AM86" s="11"/>
     </row>
-    <row r="87" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>504</v>
       </c>
@@ -20427,16 +20430,16 @@
         <v>1.0254083484573502</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A89" s="114" t="s">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A89" s="117" t="s">
         <v>209</v>
       </c>
-      <c r="B89" s="114"/>
-      <c r="C89" s="114"/>
-      <c r="D89" s="114"/>
-      <c r="E89" s="114"/>
-    </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B89" s="117"/>
+      <c r="C89" s="117"/>
+      <c r="D89" s="117"/>
+      <c r="E89" s="117"/>
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>6.6290250000000004</v>
       </c>
@@ -20447,7 +20450,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A91" s="11">
         <f>1/A90</f>
         <v>0.15085174667466181</v>
@@ -20459,7 +20462,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A92" s="17">
         <v>0.5</v>
       </c>
@@ -20470,7 +20473,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A93" s="11">
         <f>A92*A91</f>
         <v>7.5425873337330904E-2</v>
@@ -20482,7 +20485,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
         <f>1/A93</f>
         <v>13.258050000000001</v>
@@ -20495,7 +20498,7 @@
       </c>
       <c r="L94" s="17"/>
     </row>
-    <row r="95" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <v>8.0274920000000005</v>
       </c>
@@ -20507,7 +20510,7 @@
       </c>
       <c r="L95" s="17"/>
     </row>
-    <row r="96" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18">
         <f>(A94-A95)/A95</f>
         <v>0.65158059329115492</v>
@@ -20520,16 +20523,16 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="114" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="117" t="s">
         <v>210</v>
       </c>
-      <c r="B98" s="114"/>
-      <c r="C98" s="114"/>
-      <c r="D98" s="114"/>
-      <c r="E98" s="114"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="117"/>
+      <c r="C98" s="117"/>
+      <c r="D98" s="117"/>
+      <c r="E98" s="117"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
         <v>0.3</v>
       </c>
@@ -20537,7 +20540,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="11">
         <v>63.5</v>
       </c>
@@ -20545,7 +20548,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="11">
         <f>1/A100</f>
         <v>1.5748031496062992E-2</v>
@@ -20554,7 +20557,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="20">
         <f>A101*(1-A99)</f>
         <v>1.1023622047244094E-2</v>
@@ -20563,7 +20566,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="20">
         <f>1/A102</f>
         <v>90.714285714285722</v>
@@ -20572,7 +20575,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>0.35</v>
       </c>
@@ -20580,7 +20583,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <f>A102*(1-A104)</f>
         <v>7.1653543307086615E-3</v>
@@ -20589,7 +20592,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <f>1/A105</f>
         <v>139.56043956043956</v>
@@ -20598,7 +20601,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21">
         <f>(A106-A103)/A103</f>
         <v>0.53846153846153832</v>
@@ -20607,20 +20610,20 @@
         <v>525</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="22"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="114" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="B109" s="114"/>
-      <c r="C109" s="114"/>
-      <c r="D109" s="114"/>
-      <c r="E109" s="114"/>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="117"/>
+      <c r="C109" s="117"/>
+      <c r="D109" s="117"/>
+      <c r="E109" s="117"/>
+    </row>
+    <row r="110" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <f>A122</f>
         <v>0.20481927710843381</v>
@@ -20629,16 +20632,16 @@
         <v>527</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="114" t="s">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="117" t="s">
         <v>211</v>
       </c>
-      <c r="B113" s="114"/>
-      <c r="C113" s="114"/>
-      <c r="D113" s="114"/>
-      <c r="E113" s="114"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="117"/>
+      <c r="C113" s="117"/>
+      <c r="D113" s="117"/>
+      <c r="E113" s="117"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="19">
         <v>0.2</v>
       </c>
@@ -20646,7 +20649,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="11">
         <v>1.95</v>
       </c>
@@ -20654,7 +20657,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="11">
         <f>1/A115</f>
         <v>0.51282051282051289</v>
@@ -20663,7 +20666,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="20">
         <f>A116*(1-A114)</f>
         <v>0.41025641025641035</v>
@@ -20672,7 +20675,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="20">
         <f>1/A117</f>
         <v>2.4374999999999996</v>
@@ -20681,7 +20684,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="19">
         <v>0.17</v>
       </c>
@@ -20689,7 +20692,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="11">
         <f>A117*(1-A119)</f>
         <v>0.34051282051282056</v>
@@ -20698,7 +20701,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <f>1/A120</f>
         <v>2.9367469879518069</v>
@@ -20707,7 +20710,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
         <f>(A121-A118)/A118</f>
         <v>0.20481927710843381</v>
@@ -20716,17 +20719,17 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="114" t="s">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="117" t="s">
         <v>528</v>
       </c>
-      <c r="B124" s="114"/>
-      <c r="C124" s="114"/>
-      <c r="D124" s="114"/>
-      <c r="E124" s="114"/>
+      <c r="B124" s="117"/>
+      <c r="C124" s="117"/>
+      <c r="D124" s="117"/>
+      <c r="E124" s="117"/>
       <c r="L124" s="23"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="24">
         <v>4.4824543659231753E-4</v>
       </c>
@@ -20736,7 +20739,7 @@
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="11">
         <v>1.27</v>
       </c>
@@ -20748,7 +20751,7 @@
       <c r="M126" s="24"/>
       <c r="N126" s="24"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="11">
         <f>(1/CONVERT(A125/A126,"mi","km")*0.00105505585)</f>
         <v>1.857438352962903</v>
@@ -20760,7 +20763,7 @@
       <c r="M127" s="24"/>
       <c r="N127" s="24"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <f>1/A127</f>
         <v>0.53837587578874124</v>
@@ -20772,7 +20775,7 @@
       <c r="M128" s="19"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>1.07</v>
       </c>
@@ -20783,7 +20786,7 @@
       <c r="M129" s="19"/>
       <c r="N129" s="17"/>
     </row>
-    <row r="130" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f>1/A129</f>
         <v>0.93457943925233644</v>
@@ -20795,7 +20798,7 @@
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
     </row>
-    <row r="131" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21">
         <f>(A130-A128)/A128</f>
         <v>0.73592369435785332</v>
@@ -20805,24 +20808,24 @@
       </c>
       <c r="F131" s="26"/>
     </row>
-    <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="J132" s="28"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="23"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="114" t="s">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="B134" s="114"/>
-      <c r="C134" s="114"/>
-      <c r="D134" s="114"/>
-      <c r="E134" s="114"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B134" s="117"/>
+      <c r="C134" s="117"/>
+      <c r="D134" s="117"/>
+      <c r="E134" s="117"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="29" t="s">
         <v>551</v>
       </c>
@@ -20833,31 +20836,31 @@
       <c r="F135" s="30"/>
       <c r="G135" s="30"/>
     </row>
-    <row r="136" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="31"/>
-      <c r="B136" s="115" t="s">
+      <c r="B136" s="114" t="s">
         <v>552</v>
       </c>
-      <c r="C136" s="116"/>
-      <c r="D136" s="116"/>
-      <c r="E136" s="117"/>
+      <c r="C136" s="115"/>
+      <c r="D136" s="115"/>
+      <c r="E136" s="116"/>
       <c r="F136" s="30"/>
       <c r="G136" s="30"/>
     </row>
-    <row r="137" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="32"/>
-      <c r="B137" s="115" t="s">
+      <c r="B137" s="114" t="s">
         <v>553</v>
       </c>
-      <c r="C137" s="117"/>
-      <c r="D137" s="115" t="s">
+      <c r="C137" s="116"/>
+      <c r="D137" s="114" t="s">
         <v>554</v>
       </c>
-      <c r="E137" s="117"/>
+      <c r="E137" s="116"/>
       <c r="F137" s="30"/>
       <c r="G137" s="30"/>
     </row>
-    <row r="138" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="33" t="s">
         <v>555</v>
       </c>
@@ -20878,7 +20881,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="36" t="s">
         <v>559</v>
       </c>
@@ -20902,7 +20905,7 @@
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="39" t="s">
         <v>560</v>
       </c>
@@ -20926,7 +20929,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="39" t="s">
         <v>561</v>
       </c>
@@ -20950,7 +20953,7 @@
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="39" t="s">
         <v>562</v>
       </c>
@@ -20974,7 +20977,7 @@
         <v>-4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="39" t="s">
         <v>563</v>
       </c>
@@ -20998,7 +21001,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="39" t="s">
         <v>564</v>
       </c>
@@ -21022,7 +21025,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="39" t="s">
         <v>565</v>
       </c>
@@ -21046,7 +21049,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="39" t="s">
         <v>567</v>
       </c>
@@ -21070,7 +21073,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="39" t="s">
         <v>568</v>
       </c>
@@ -21094,7 +21097,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="39" t="s">
         <v>569</v>
       </c>
@@ -21118,7 +21121,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="39" t="s">
         <v>570</v>
       </c>
@@ -21142,7 +21145,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="39" t="s">
         <v>571</v>
       </c>
@@ -21166,7 +21169,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="39" t="s">
         <v>572</v>
       </c>
@@ -21190,7 +21193,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="39" t="s">
         <v>573</v>
       </c>
@@ -21214,7 +21217,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="39" t="s">
         <v>574</v>
       </c>
@@ -21238,7 +21241,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="39" t="s">
         <v>575</v>
       </c>
@@ -21263,7 +21266,7 @@
       </c>
       <c r="I154" s="43"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="39" t="s">
         <v>576</v>
       </c>
@@ -21287,7 +21290,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="44" t="s">
         <v>577</v>
       </c>
@@ -21311,7 +21314,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="30"/>
       <c r="B157" s="30"/>
       <c r="C157" s="30"/>
@@ -21320,7 +21323,7 @@
       <c r="F157" s="30"/>
       <c r="G157" s="30"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="30"/>
       <c r="B158" s="30"/>
       <c r="C158" s="30"/>
@@ -21329,7 +21332,7 @@
       <c r="F158" s="30"/>
       <c r="G158" s="30"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="30" t="s">
         <v>147</v>
       </c>
@@ -21343,7 +21346,7 @@
       <c r="F159" s="30"/>
       <c r="G159" s="30"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="30" t="s">
         <v>566</v>
       </c>
@@ -21357,7 +21360,7 @@
       <c r="F160" s="30"/>
       <c r="G160" s="30"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="30" t="s">
         <v>146</v>
       </c>
@@ -21371,7 +21374,7 @@
       <c r="F161" s="30"/>
       <c r="G161" s="30"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="30" t="s">
         <v>143</v>
       </c>
@@ -21385,7 +21388,7 @@
       <c r="F162" s="30"/>
       <c r="G162" s="30"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="30" t="s">
         <v>144</v>
       </c>
@@ -21399,16 +21402,16 @@
       <c r="F163" s="30"/>
       <c r="G163" s="30"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="114" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="117" t="s">
         <v>215</v>
       </c>
-      <c r="B165" s="114"/>
-      <c r="C165" s="114"/>
-      <c r="D165" s="114"/>
-      <c r="E165" s="114"/>
-    </row>
-    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="117"/>
+      <c r="C165" s="117"/>
+      <c r="D165" s="117"/>
+      <c r="E165" s="117"/>
+    </row>
+    <row r="166" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
         <v>216</v>
       </c>
@@ -21416,7 +21419,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>217</v>
       </c>
@@ -21425,16 +21428,16 @@
         <v>3.4219694129380196E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B168" s="48"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="114" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="117" t="s">
         <v>536</v>
       </c>
-      <c r="B169" s="114"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="117"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="25" t="s">
         <v>537</v>
       </c>
@@ -21442,7 +21445,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
         <v>538</v>
       </c>
@@ -21451,7 +21454,7 @@
         <v>4124.8</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
         <v>539</v>
       </c>
@@ -21460,19 +21463,19 @@
         <v>0.23581749418153608</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B173" s="48"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="114" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="B174" s="114"/>
-      <c r="C174" s="114"/>
-      <c r="D174" s="114"/>
-      <c r="E174" s="114"/>
-    </row>
-    <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="117"/>
+      <c r="C174" s="117"/>
+      <c r="D174" s="117"/>
+      <c r="E174" s="117"/>
+    </row>
+    <row r="175" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
         <v>546</v>
       </c>
@@ -21480,7 +21483,7 @@
         <v>0.1246</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
         <v>541</v>
       </c>
@@ -21489,16 +21492,16 @@
         <v>0.87539999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="114" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="117" t="s">
         <v>218</v>
       </c>
-      <c r="B178" s="114"/>
-      <c r="C178" s="114"/>
-      <c r="D178" s="114"/>
-      <c r="E178" s="114"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="117"/>
+      <c r="C178" s="117"/>
+      <c r="D178" s="117"/>
+      <c r="E178" s="117"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="27" t="s">
         <v>543</v>
       </c>
@@ -21506,7 +21509,7 @@
         <v>197000</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>544</v>
       </c>
@@ -21514,7 +21517,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>219</v>
       </c>
@@ -21523,16 +21526,16 @@
         <v>1.1257142857142857</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="114" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="117" t="s">
         <v>220</v>
       </c>
-      <c r="B183" s="114"/>
-      <c r="C183" s="114"/>
-      <c r="D183" s="114"/>
-      <c r="E183" s="114"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="117"/>
+      <c r="C183" s="117"/>
+      <c r="D183" s="117"/>
+      <c r="E183" s="117"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="51" t="s">
         <v>547</v>
       </c>
@@ -21543,7 +21546,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="51" t="s">
         <v>549</v>
       </c>
@@ -21554,7 +21557,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
         <v>550</v>
       </c>
@@ -21563,16 +21566,16 @@
         <v>7.5409836065573763E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="114" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="117" t="s">
         <v>238</v>
       </c>
-      <c r="B188" s="114"/>
-      <c r="C188" s="114"/>
-      <c r="D188" s="114"/>
-      <c r="E188" s="114"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="117"/>
+      <c r="C188" s="117"/>
+      <c r="D188" s="117"/>
+      <c r="E188" s="117"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="23" t="s">
         <v>230</v>
       </c>
@@ -21581,7 +21584,7 @@
       </c>
       <c r="C189" s="23"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>232</v>
       </c>
@@ -21592,7 +21595,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
         <v>234</v>
       </c>
@@ -21602,7 +21605,7 @@
       </c>
       <c r="C191" s="54"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
         <v>235</v>
       </c>
@@ -21610,7 +21613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
         <v>236</v>
       </c>
@@ -21619,7 +21622,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11" t="s">
         <v>237</v>
       </c>
@@ -21630,6 +21633,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -21644,12 +21653,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/toddfincannon/Projects/eps-poland/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Poland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5795677D-AD76-EF41-AAF1-2B27FEE208FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFE6202-54F9-4C23-8A53-C53F0B4929FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18960" windowHeight="6220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11235" yWindow="945" windowWidth="17550" windowHeight="15465" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
     <sheet name="PolicyLevers" sheetId="1" r:id="rId2"/>
     <sheet name="OutputGraphs" sheetId="8" r:id="rId3"/>
     <sheet name="ReferenceScenarios" sheetId="9" r:id="rId4"/>
-    <sheet name="Targets" sheetId="14" r:id="rId5"/>
+    <sheet name="Target Calculations" sheetId="14" r:id="rId5"/>
     <sheet name="MaxBoundCalculations" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$P$275</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2164" uniqueCount="883">
   <si>
     <t>Short Name</t>
   </si>
@@ -2264,9 +2264,6 @@
     <t>**Description:** This policy increases CO2 sequestration by forests through improved forest management practices.  // **Implementation schedule:** This policy is phased in linearly from 2017-2050. // **Guidance for setting values:** If this policy is fully implemented, half of the 94 million acres of forest not currently under best management practices will instead be managed with best practices by 2050.</t>
   </si>
   <si>
-    <t>contribution</t>
-  </si>
-  <si>
     <t>cost curve</t>
   </si>
   <si>
@@ -2910,6 +2907,45 @@
   </si>
   <si>
     <t>Variable Names in Graph Key (for multiple variable graphs)</t>
+  </si>
+  <si>
+    <t>Scenario_BAU.cin</t>
+  </si>
+  <si>
+    <t>Include?</t>
+  </si>
+  <si>
+    <t>reduction wedge</t>
+  </si>
+  <si>
+    <t>Target 1 Title</t>
+  </si>
+  <si>
+    <t>Target 1 Year</t>
+  </si>
+  <si>
+    <t>Target 1 Min Value</t>
+  </si>
+  <si>
+    <t>Target 1 Max Value</t>
+  </si>
+  <si>
+    <t>Target 1 Description</t>
+  </si>
+  <si>
+    <t>Target 2 Title</t>
+  </si>
+  <si>
+    <t>Target 2 Year</t>
+  </si>
+  <si>
+    <t>Target 2 Min Value</t>
+  </si>
+  <si>
+    <t>Target 2 Max Value</t>
+  </si>
+  <si>
+    <t>Target 2 Description</t>
   </si>
 </sst>
 </file>
@@ -3397,7 +3433,7 @@
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3684,6 +3720,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3693,11 +3732,14 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3709,7 +3751,27 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4266,75 +4328,75 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="11"/>
+    <col min="1" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <f>MAX(PolicyLevers!H2:H1001)</f>
         <v>187</v>
@@ -4358,29 +4420,29 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.83203125" style="5" customWidth="1"/>
-    <col min="6" max="7" width="23.1640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="58" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.85546875" style="5" customWidth="1"/>
+    <col min="6" max="7" width="23.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="88" customWidth="1"/>
     <col min="12" max="12" width="19" style="5" customWidth="1"/>
-    <col min="13" max="14" width="19.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="28.5" style="5" customWidth="1"/>
-    <col min="16" max="16" width="117.33203125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="52.5" style="5" customWidth="1"/>
-    <col min="18" max="18" width="43.5" style="3" customWidth="1"/>
-    <col min="19" max="19" width="47.83203125" style="8" customWidth="1"/>
-    <col min="20" max="20" width="37.33203125" style="9" customWidth="1"/>
-    <col min="21" max="16384" width="9.1640625" style="5"/>
+    <col min="13" max="14" width="19.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="117.28515625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="52.42578125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="43.42578125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="47.85546875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="37.28515625" style="9" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
         <v>3</v>
       </c>
@@ -4403,7 +4465,7 @@
         <v>101</v>
       </c>
       <c r="H1" s="60" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I1" s="59" t="s">
         <v>85</v>
@@ -4412,7 +4474,7 @@
         <v>483</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L1" s="59" t="s">
         <v>86</v>
@@ -4430,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="Q1" s="59" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R1" s="59" t="s">
         <v>243</v>
@@ -4442,7 +4504,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
@@ -4476,10 +4538,10 @@
         <v>0.02</v>
       </c>
       <c r="O2" s="62" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P2" s="86" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Q2" s="62" t="s">
         <v>244</v>
@@ -4494,7 +4556,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>4</v>
       </c>
@@ -4536,7 +4598,7 @@
         <v>134</v>
       </c>
       <c r="P3" s="86" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Q3" s="62" t="s">
         <v>246</v>
@@ -4551,7 +4613,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="65" t="str">
         <f>A$3</f>
         <v>Transportation</v>
@@ -4600,7 +4662,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P4" s="86" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q4" s="65" t="str">
         <f t="shared" si="1"/>
@@ -4617,7 +4679,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="str">
         <f>A$3</f>
         <v>Transportation</v>
@@ -4666,7 +4728,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P5" s="86" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Q5" s="65" t="str">
         <f t="shared" si="1"/>
@@ -4683,7 +4745,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="str">
         <f>A$3</f>
         <v>Transportation</v>
@@ -4732,7 +4794,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P6" s="86" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Q6" s="65" t="str">
         <f t="shared" si="1"/>
@@ -4749,7 +4811,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="65" t="str">
         <f>A$3</f>
         <v>Transportation</v>
@@ -4798,7 +4860,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P7" s="86" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q7" s="65" t="str">
         <f t="shared" si="1"/>
@@ -4815,7 +4877,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="65" t="str">
         <f>A$3</f>
         <v>Transportation</v>
@@ -4864,7 +4926,7 @@
         <v>% increase in miles/gal</v>
       </c>
       <c r="P8" s="86" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="Q8" s="65" t="str">
         <f t="shared" si="1"/>
@@ -4881,7 +4943,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>4</v>
       </c>
@@ -4896,7 +4958,7 @@
       </c>
       <c r="E9" s="62"/>
       <c r="F9" s="62" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G9" s="62"/>
       <c r="H9" s="63">
@@ -4922,7 +4984,7 @@
         <v>48</v>
       </c>
       <c r="P9" s="62" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q9" s="62" t="s">
         <v>248</v>
@@ -4931,11 +4993,11 @@
         <v>249</v>
       </c>
       <c r="S9" s="74" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="T9" s="62"/>
     </row>
-    <row r="10" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="str">
         <f>A$9</f>
         <v>Transportation</v>
@@ -4984,7 +5046,7 @@
         <v>% of TDM package implemented</v>
       </c>
       <c r="P10" s="62" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Q10" s="68" t="str">
         <f t="shared" si="3"/>
@@ -5000,7 +5062,7 @@
       </c>
       <c r="T10" s="62"/>
     </row>
-    <row r="11" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>4</v>
       </c>
@@ -5045,7 +5107,7 @@
         <v>47</v>
       </c>
       <c r="P11" s="86" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="Q11" s="62" t="s">
         <v>250</v>
@@ -5058,7 +5120,7 @@
       </c>
       <c r="T11" s="62"/>
     </row>
-    <row r="12" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="str">
         <f t="shared" ref="A12:C22" si="4">A$11</f>
         <v>Transportation</v>
@@ -5104,7 +5166,7 @@
       <c r="S12" s="65"/>
       <c r="T12" s="65"/>
     </row>
-    <row r="13" spans="1:20" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5157,7 +5219,7 @@
         <v>% of non-electric vehicles replaced</v>
       </c>
       <c r="P13" s="86" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Q13" s="62" t="s">
         <v>250</v>
@@ -5166,11 +5228,11 @@
         <v>251</v>
       </c>
       <c r="S13" s="86" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="T13" s="62"/>
     </row>
-    <row r="14" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5216,7 +5278,7 @@
       <c r="S14" s="65"/>
       <c r="T14" s="65"/>
     </row>
-    <row r="15" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5262,7 +5324,7 @@
       <c r="S15" s="65"/>
       <c r="T15" s="65"/>
     </row>
-    <row r="16" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5308,7 +5370,7 @@
       <c r="S16" s="65"/>
       <c r="T16" s="65"/>
     </row>
-    <row r="17" spans="1:20" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5374,7 +5436,7 @@
       </c>
       <c r="T17" s="65"/>
     </row>
-    <row r="18" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5420,7 +5482,7 @@
       <c r="S18" s="65"/>
       <c r="T18" s="65"/>
     </row>
-    <row r="19" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5466,7 +5528,7 @@
       <c r="S19" s="65"/>
       <c r="T19" s="65"/>
     </row>
-    <row r="20" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5512,7 +5574,7 @@
       <c r="S20" s="65"/>
       <c r="T20" s="65"/>
     </row>
-    <row r="21" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5556,7 +5618,7 @@
       <c r="S21" s="65"/>
       <c r="T21" s="65"/>
     </row>
-    <row r="22" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="str">
         <f t="shared" si="4"/>
         <v>Transportation</v>
@@ -5600,7 +5662,7 @@
       <c r="S22" s="65"/>
       <c r="T22" s="65"/>
     </row>
-    <row r="23" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="62" t="s">
         <v>88</v>
       </c>
@@ -5641,7 +5703,7 @@
         <v>136</v>
       </c>
       <c r="P23" s="86" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Q23" s="62" t="s">
         <v>252</v>
@@ -5652,7 +5714,7 @@
       <c r="S23" s="62"/>
       <c r="T23" s="62"/>
     </row>
-    <row r="24" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="str">
         <f>A$23</f>
         <v>Buildings and Appliances</v>
@@ -5701,7 +5763,7 @@
         <v>% of newly sold non-electric building components</v>
       </c>
       <c r="P24" s="86" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Q24" s="68" t="str">
         <f t="shared" si="7"/>
@@ -5714,7 +5776,7 @@
       <c r="S24" s="68"/>
       <c r="T24" s="68"/>
     </row>
-    <row r="25" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="str">
         <f>A$23</f>
         <v>Buildings and Appliances</v>
@@ -5763,7 +5825,7 @@
         <v>% of newly sold non-electric building components</v>
       </c>
       <c r="P25" s="86" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="Q25" s="68" t="str">
         <f t="shared" si="7"/>
@@ -5776,7 +5838,7 @@
       <c r="S25" s="68"/>
       <c r="T25" s="68"/>
     </row>
-    <row r="26" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="62" t="s">
         <v>88</v>
       </c>
@@ -5821,7 +5883,7 @@
         <v>41</v>
       </c>
       <c r="P26" s="86" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="Q26" s="62" t="s">
         <v>254</v>
@@ -5836,7 +5898,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -5889,7 +5951,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P27" s="86" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Q27" s="65" t="str">
         <f t="shared" si="11"/>
@@ -5912,7 +5974,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="65" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -5964,7 +6026,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P28" s="86" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q28" s="65" t="str">
         <f t="shared" si="11"/>
@@ -5987,7 +6049,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -6040,7 +6102,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P29" s="86" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Q29" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6063,7 +6125,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="65" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -6116,7 +6178,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P30" s="86" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="Q30" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6139,7 +6201,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="65" t="str">
         <f>A$26</f>
         <v>Buildings and Appliances</v>
@@ -6192,7 +6254,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P31" s="86" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="Q31" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6215,7 +6277,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="65" t="str">
         <f t="shared" ref="A32:C43" si="13">A$26</f>
         <v>Buildings and Appliances</v>
@@ -6268,7 +6330,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P32" s="86" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Q32" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6291,7 +6353,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6344,7 +6406,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P33" s="86" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Q33" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6367,7 +6429,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6420,7 +6482,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P34" s="86" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Q34" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6443,7 +6505,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6496,7 +6558,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P35" s="86" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Q35" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6519,7 +6581,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6572,7 +6634,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P36" s="86" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Q36" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6595,7 +6657,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6648,7 +6710,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P37" s="86" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Q37" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6671,7 +6733,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6724,7 +6786,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P38" s="86" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Q38" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6747,7 +6809,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6800,7 +6862,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P39" s="86" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Q39" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6823,7 +6885,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6876,7 +6938,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P40" s="86" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Q40" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6899,7 +6961,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -6952,7 +7014,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P41" s="86" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q41" s="65" t="str">
         <f t="shared" si="11"/>
@@ -6975,7 +7037,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -7028,7 +7090,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P42" s="86" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Q42" s="65" t="str">
         <f t="shared" si="11"/>
@@ -7051,7 +7113,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="str">
         <f t="shared" si="13"/>
         <v>Buildings and Appliances</v>
@@ -7104,7 +7166,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P43" s="86" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q43" s="65" t="str">
         <f t="shared" ref="Q43:S43" si="16">Q$26</f>
@@ -7127,7 +7189,7 @@
 RESIDENTIAL SECTOR," http://www.energy.ca.gov/2007publications/CEC-500-2007-002/CEC-500-2007-002.PDF, p.33, Table 5-1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="62" t="s">
         <v>88</v>
       </c>
@@ -7177,7 +7239,7 @@
       </c>
       <c r="T44" s="65"/>
     </row>
-    <row r="45" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="62" t="s">
         <v>88</v>
       </c>
@@ -7215,7 +7277,7 @@
         <v>337</v>
       </c>
       <c r="P45" s="86" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q45" s="62" t="s">
         <v>338</v>
@@ -7230,7 +7292,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="62" t="s">
         <v>88</v>
       </c>
@@ -7267,7 +7329,7 @@
         <v>344</v>
       </c>
       <c r="P46" s="86" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q46" s="62" t="s">
         <v>341</v>
@@ -7280,7 +7342,7 @@
       </c>
       <c r="T46" s="65"/>
     </row>
-    <row r="47" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="62" t="s">
         <v>88</v>
       </c>
@@ -7330,7 +7392,7 @@
       </c>
       <c r="T47" s="65"/>
     </row>
-    <row r="48" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" s="7" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="62" t="s">
         <v>88</v>
       </c>
@@ -7387,7 +7449,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="65" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -7450,7 +7512,7 @@
       </c>
       <c r="T49" s="65"/>
     </row>
-    <row r="50" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A50" s="65" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -7513,7 +7575,7 @@
       </c>
       <c r="T50" s="65"/>
     </row>
-    <row r="51" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="65" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -7576,7 +7638,7 @@
       </c>
       <c r="T51" s="65"/>
     </row>
-    <row r="52" spans="1:20" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="65" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -7639,7 +7701,7 @@
       </c>
       <c r="T52" s="65"/>
     </row>
-    <row r="53" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="65" t="str">
         <f>A$48</f>
         <v>Buildings and Appliances</v>
@@ -7702,7 +7764,7 @@
       </c>
       <c r="T53" s="65"/>
     </row>
-    <row r="54" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="62" t="s">
         <v>88</v>
       </c>
@@ -7743,7 +7805,7 @@
         <v>38</v>
       </c>
       <c r="P54" s="86" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Q54" s="62" t="s">
         <v>262</v>
@@ -7756,7 +7818,7 @@
       </c>
       <c r="T54" s="65"/>
     </row>
-    <row r="55" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="65" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -7805,7 +7867,7 @@
         <v>on/off</v>
       </c>
       <c r="P55" s="86" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q55" s="62" t="s">
         <v>262</v>
@@ -7818,7 +7880,7 @@
       </c>
       <c r="T55" s="65"/>
     </row>
-    <row r="56" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="65" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -7860,7 +7922,7 @@
       <c r="S56" s="65"/>
       <c r="T56" s="65"/>
     </row>
-    <row r="57" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="65" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -7902,7 +7964,7 @@
       <c r="S57" s="65"/>
       <c r="T57" s="65"/>
     </row>
-    <row r="58" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="65" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -7951,7 +8013,7 @@
         <v>on/off</v>
       </c>
       <c r="P58" s="86" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="Q58" s="62" t="s">
         <v>262</v>
@@ -7964,7 +8026,7 @@
       </c>
       <c r="T58" s="65"/>
     </row>
-    <row r="59" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="65" t="str">
         <f>A$54</f>
         <v>Buildings and Appliances</v>
@@ -8006,7 +8068,7 @@
       <c r="S59" s="65"/>
       <c r="T59" s="65"/>
     </row>
-    <row r="60" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>8</v>
       </c>
@@ -8017,11 +8079,11 @@
         <v>446</v>
       </c>
       <c r="D60" s="62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E60" s="62"/>
       <c r="F60" s="62" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="66">
@@ -8047,7 +8109,7 @@
         <v>38</v>
       </c>
       <c r="P60" s="86" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Q60" s="62" t="s">
         <v>450</v>
@@ -8058,7 +8120,7 @@
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
     </row>
-    <row r="61" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="65" t="str">
         <f>A$60</f>
         <v>Electricity Supply</v>
@@ -8120,7 +8182,7 @@
       <c r="S61" s="65"/>
       <c r="T61" s="65"/>
     </row>
-    <row r="62" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="65" t="str">
         <f t="shared" ref="A62:C71" si="24">A$60</f>
         <v>Electricity Supply</v>
@@ -8182,7 +8244,7 @@
       <c r="S62" s="65"/>
       <c r="T62" s="65"/>
     </row>
-    <row r="63" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8244,7 +8306,7 @@
       <c r="S63" s="65"/>
       <c r="T63" s="65"/>
     </row>
-    <row r="64" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8258,11 +8320,11 @@
         <v>Boolean Ban New Power Plants</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E64" s="62"/>
       <c r="F64" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G64" s="62"/>
       <c r="H64" s="63"/>
@@ -8284,7 +8346,7 @@
       <c r="S64" s="65"/>
       <c r="T64" s="65"/>
     </row>
-    <row r="65" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8324,7 +8386,7 @@
       <c r="S65" s="65"/>
       <c r="T65" s="65"/>
     </row>
-    <row r="66" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8364,7 +8426,7 @@
       <c r="S66" s="65"/>
       <c r="T66" s="65"/>
     </row>
-    <row r="67" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8413,7 +8475,7 @@
         <v>on/off</v>
       </c>
       <c r="P67" s="86" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="Q67" s="91" t="str">
         <f t="shared" ref="Q67:R67" si="26">Q$60</f>
@@ -8426,7 +8488,7 @@
       <c r="S67" s="65"/>
       <c r="T67" s="65"/>
     </row>
-    <row r="68" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8466,7 +8528,7 @@
       <c r="S68" s="65"/>
       <c r="T68" s="65"/>
     </row>
-    <row r="69" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8506,7 +8568,7 @@
       <c r="S69" s="65"/>
       <c r="T69" s="65"/>
     </row>
-    <row r="70" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8520,11 +8582,11 @@
         <v>Boolean Ban New Power Plants</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E70" s="62"/>
       <c r="F70" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G70" s="62"/>
       <c r="H70" s="63"/>
@@ -8553,7 +8615,7 @@
         <v>on/off</v>
       </c>
       <c r="P70" s="62" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="Q70" s="65" t="str">
         <f t="shared" ref="Q70:R70" si="28">Q$60</f>
@@ -8566,7 +8628,7 @@
       <c r="S70" s="65"/>
       <c r="T70" s="65"/>
     </row>
-    <row r="71" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="65" t="str">
         <f t="shared" si="24"/>
         <v>Electricity Supply</v>
@@ -8580,11 +8642,11 @@
         <v>Boolean Ban New Power Plants</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E71" s="62"/>
       <c r="F71" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G71" s="62"/>
       <c r="H71" s="63"/>
@@ -8606,7 +8668,7 @@
       <c r="S71" s="65"/>
       <c r="T71" s="65"/>
     </row>
-    <row r="72" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>8</v>
       </c>
@@ -8643,7 +8705,7 @@
         <v>349</v>
       </c>
       <c r="P72" s="86" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Q72" s="62" t="s">
         <v>351</v>
@@ -8656,7 +8718,7 @@
       </c>
       <c r="T72" s="12"/>
     </row>
-    <row r="73" spans="1:20" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>8</v>
       </c>
@@ -8693,7 +8755,7 @@
         <v>350</v>
       </c>
       <c r="P73" s="86" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Q73" s="62" t="s">
         <v>352</v>
@@ -8706,7 +8768,7 @@
       </c>
       <c r="T73" s="12"/>
     </row>
-    <row r="74" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="62" t="s">
         <v>8</v>
       </c>
@@ -8740,7 +8802,7 @@
       <c r="S74" s="62"/>
       <c r="T74" s="62"/>
     </row>
-    <row r="75" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="62" t="s">
         <v>8</v>
       </c>
@@ -8777,7 +8839,7 @@
         <v>44</v>
       </c>
       <c r="P75" s="86" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Q75" s="62" t="s">
         <v>264</v>
@@ -8790,7 +8852,7 @@
       </c>
       <c r="T75" s="62"/>
     </row>
-    <row r="76" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="62" t="s">
         <v>8</v>
       </c>
@@ -8801,11 +8863,11 @@
         <v>150</v>
       </c>
       <c r="D76" s="62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E76" s="62"/>
       <c r="F76" s="62" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G76" s="62"/>
       <c r="H76" s="63">
@@ -8831,7 +8893,7 @@
         <v>241</v>
       </c>
       <c r="P76" s="86" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Q76" s="62" t="s">
         <v>266</v>
@@ -8842,7 +8904,7 @@
       <c r="S76" s="86"/>
       <c r="T76" s="86"/>
     </row>
-    <row r="77" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="65" t="str">
         <f t="shared" ref="A77:C87" si="29">A$76</f>
         <v>Electricity Supply</v>
@@ -8884,7 +8946,7 @@
       <c r="S77" s="62"/>
       <c r="T77" s="62"/>
     </row>
-    <row r="78" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -8948,7 +9010,7 @@
       </c>
       <c r="T78" s="62"/>
     </row>
-    <row r="79" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -8990,7 +9052,7 @@
       <c r="S79" s="62"/>
       <c r="T79" s="62"/>
     </row>
-    <row r="80" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9004,11 +9066,11 @@
         <v>Annual Additional Capacity Retired due to Early Retirement Policy</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E80" s="62"/>
       <c r="F80" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G80" s="62"/>
       <c r="H80" s="63" t="s">
@@ -9032,7 +9094,7 @@
       <c r="S80" s="62"/>
       <c r="T80" s="62"/>
     </row>
-    <row r="81" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9074,7 +9136,7 @@
       <c r="S81" s="62"/>
       <c r="T81" s="62"/>
     </row>
-    <row r="82" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9116,7 +9178,7 @@
       <c r="S82" s="62"/>
       <c r="T82" s="62"/>
     </row>
-    <row r="83" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9158,7 +9220,7 @@
       <c r="S83" s="62"/>
       <c r="T83" s="62"/>
     </row>
-    <row r="84" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9198,7 +9260,7 @@
       <c r="S84" s="62"/>
       <c r="T84" s="62"/>
     </row>
-    <row r="85" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9238,7 +9300,7 @@
       <c r="S85" s="62"/>
       <c r="T85" s="62"/>
     </row>
-    <row r="86" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9252,11 +9314,11 @@
         <v>Annual Additional Capacity Retired due to Early Retirement Policy</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E86" s="62"/>
       <c r="F86" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G86" s="62"/>
       <c r="H86" s="95">
@@ -9287,7 +9349,7 @@
         <v>MW/year</v>
       </c>
       <c r="P86" s="86" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q86" s="91" t="str">
         <f t="shared" ref="Q86:R86" si="32">Q$76</f>
@@ -9300,7 +9362,7 @@
       <c r="S86" s="62"/>
       <c r="T86" s="62"/>
     </row>
-    <row r="87" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="65" t="str">
         <f t="shared" si="29"/>
         <v>Electricity Supply</v>
@@ -9314,11 +9376,11 @@
         <v>Annual Additional Capacity Retired due to Early Retirement Policy</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E87" s="62"/>
       <c r="F87" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G87" s="62"/>
       <c r="H87" s="63"/>
@@ -9340,7 +9402,7 @@
       <c r="S87" s="62"/>
       <c r="T87" s="62"/>
     </row>
-    <row r="88" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="62" t="s">
         <v>8</v>
       </c>
@@ -9377,7 +9439,7 @@
         <v>39</v>
       </c>
       <c r="P88" s="86" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q88" s="62" t="s">
         <v>268</v>
@@ -9392,7 +9454,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="62" t="s">
         <v>8</v>
       </c>
@@ -9430,7 +9492,7 @@
         <v>157</v>
       </c>
       <c r="P89" s="86" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q89" s="62" t="s">
         <v>270</v>
@@ -9445,7 +9507,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="62" t="s">
         <v>8</v>
       </c>
@@ -9479,7 +9541,7 @@
       <c r="S90" s="65"/>
       <c r="T90" s="65"/>
     </row>
-    <row r="91" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="62" t="s">
         <v>8</v>
       </c>
@@ -9513,7 +9575,7 @@
       <c r="S91" s="65"/>
       <c r="T91" s="65"/>
     </row>
-    <row r="92" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="62" t="s">
         <v>8</v>
       </c>
@@ -9524,11 +9586,11 @@
         <v>152</v>
       </c>
       <c r="D92" s="62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E92" s="62"/>
       <c r="F92" s="62" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G92" s="62"/>
       <c r="H92" s="63" t="s">
@@ -9551,7 +9613,7 @@
       <c r="S92" s="65"/>
       <c r="T92" s="65"/>
     </row>
-    <row r="93" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="65" t="str">
         <f>A$92</f>
         <v>Electricity Supply</v>
@@ -9593,7 +9655,7 @@
       <c r="S93" s="65"/>
       <c r="T93" s="65"/>
     </row>
-    <row r="94" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="65" t="str">
         <f t="shared" ref="A94:C101" si="35">A$92</f>
         <v>Electricity Supply</v>
@@ -9653,7 +9715,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9695,7 +9757,7 @@
       <c r="S95" s="12"/>
       <c r="T95" s="65"/>
     </row>
-    <row r="96" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9709,11 +9771,11 @@
         <v>Generation Capacity Lifetime Extension</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E96" s="65"/>
       <c r="F96" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G96" s="65"/>
       <c r="H96" s="63" t="s">
@@ -9737,7 +9799,7 @@
       <c r="S96" s="12"/>
       <c r="T96" s="65"/>
     </row>
-    <row r="97" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9779,7 +9841,7 @@
       <c r="S97" s="12"/>
       <c r="T97" s="62"/>
     </row>
-    <row r="98" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9821,7 +9883,7 @@
       <c r="S98" s="12"/>
       <c r="T98" s="62"/>
     </row>
-    <row r="99" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9863,7 +9925,7 @@
       <c r="S99" s="12"/>
       <c r="T99" s="65"/>
     </row>
-    <row r="100" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9877,11 +9939,11 @@
         <v>Generation Capacity Lifetime Extension</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E100" s="65"/>
       <c r="F100" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G100" s="65"/>
       <c r="H100" s="63"/>
@@ -9903,7 +9965,7 @@
       <c r="S100" s="12"/>
       <c r="T100" s="65"/>
     </row>
-    <row r="101" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="65" t="str">
         <f t="shared" si="35"/>
         <v>Electricity Supply</v>
@@ -9917,11 +9979,11 @@
         <v>Generation Capacity Lifetime Extension</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E101" s="65"/>
       <c r="F101" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G101" s="65"/>
       <c r="H101" s="63"/>
@@ -9943,7 +10005,7 @@
       <c r="S101" s="12"/>
       <c r="T101" s="65"/>
     </row>
-    <row r="102" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>8</v>
       </c>
@@ -9954,7 +10016,7 @@
         <v>327</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>328</v>
@@ -9979,7 +10041,7 @@
       <c r="S102" s="12"/>
       <c r="T102" s="12"/>
     </row>
-    <row r="103" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="67" t="str">
         <f t="shared" ref="A103:C132" si="36">A$102</f>
         <v>Electricity Supply</v>
@@ -9993,7 +10055,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>329</v>
@@ -10019,7 +10081,7 @@
       <c r="S103" s="12"/>
       <c r="T103" s="12"/>
     </row>
-    <row r="104" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10033,7 +10095,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>330</v>
@@ -10059,7 +10121,7 @@
       <c r="S104" s="12"/>
       <c r="T104" s="12"/>
     </row>
-    <row r="105" spans="1:20" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A105" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10121,7 +10183,7 @@
       </c>
       <c r="T105" s="12"/>
     </row>
-    <row r="106" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10161,7 +10223,7 @@
       <c r="S106" s="12"/>
       <c r="T106" s="12"/>
     </row>
-    <row r="107" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10201,7 +10263,7 @@
       <c r="S107" s="12"/>
       <c r="T107" s="12"/>
     </row>
-    <row r="108" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10241,7 +10303,7 @@
       <c r="S108" s="12"/>
       <c r="T108" s="12"/>
     </row>
-    <row r="109" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10281,7 +10343,7 @@
       <c r="S109" s="12"/>
       <c r="T109" s="12"/>
     </row>
-    <row r="110" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10321,7 +10383,7 @@
       <c r="S110" s="12"/>
       <c r="T110" s="12"/>
     </row>
-    <row r="111" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10361,7 +10423,7 @@
       <c r="S111" s="12"/>
       <c r="T111" s="12"/>
     </row>
-    <row r="112" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10401,7 +10463,7 @@
       <c r="S112" s="12"/>
       <c r="T112" s="12"/>
     </row>
-    <row r="113" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10441,7 +10503,7 @@
       <c r="S113" s="12"/>
       <c r="T113" s="12"/>
     </row>
-    <row r="114" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10455,7 +10517,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>328</v>
@@ -10481,7 +10543,7 @@
       <c r="S114" s="12"/>
       <c r="T114" s="12"/>
     </row>
-    <row r="115" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10495,7 +10557,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>329</v>
@@ -10521,7 +10583,7 @@
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
     </row>
-    <row r="116" spans="1:20" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10535,7 +10597,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>330</v>
@@ -10544,7 +10606,7 @@
         <v>406</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H116" s="66">
         <v>143</v>
@@ -10570,7 +10632,7 @@
         <v>331</v>
       </c>
       <c r="P116" s="86" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Q116" s="12" t="s">
         <v>333</v>
@@ -10583,7 +10645,7 @@
       </c>
       <c r="T116" s="12"/>
     </row>
-    <row r="117" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10623,7 +10685,7 @@
       <c r="S117" s="12"/>
       <c r="T117" s="12"/>
     </row>
-    <row r="118" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10663,7 +10725,7 @@
       <c r="S118" s="12"/>
       <c r="T118" s="12"/>
     </row>
-    <row r="119" spans="1:20" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10725,7 +10787,7 @@
       </c>
       <c r="T119" s="12"/>
     </row>
-    <row r="120" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10765,7 +10827,7 @@
       <c r="S120" s="12"/>
       <c r="T120" s="12"/>
     </row>
-    <row r="121" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10805,7 +10867,7 @@
       <c r="S121" s="12"/>
       <c r="T121" s="12"/>
     </row>
-    <row r="122" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10845,7 +10907,7 @@
       <c r="S122" s="12"/>
       <c r="T122" s="12"/>
     </row>
-    <row r="123" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10885,7 +10947,7 @@
       <c r="S123" s="12"/>
       <c r="T123" s="12"/>
     </row>
-    <row r="124" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10925,7 +10987,7 @@
       <c r="S124" s="12"/>
       <c r="T124" s="12"/>
     </row>
-    <row r="125" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -10965,7 +11027,7 @@
       <c r="S125" s="12"/>
       <c r="T125" s="12"/>
     </row>
-    <row r="126" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11005,7 +11067,7 @@
       <c r="S126" s="12"/>
       <c r="T126" s="12"/>
     </row>
-    <row r="127" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11045,7 +11107,7 @@
       <c r="S127" s="12"/>
       <c r="T127" s="12"/>
     </row>
-    <row r="128" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11085,7 +11147,7 @@
       <c r="S128" s="12"/>
       <c r="T128" s="12"/>
     </row>
-    <row r="129" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11125,7 +11187,7 @@
       <c r="S129" s="12"/>
       <c r="T129" s="12"/>
     </row>
-    <row r="130" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11165,7 +11227,7 @@
       <c r="S130" s="12"/>
       <c r="T130" s="12"/>
     </row>
-    <row r="131" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11205,7 +11267,7 @@
       <c r="S131" s="12"/>
       <c r="T131" s="12"/>
     </row>
-    <row r="132" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="67" t="str">
         <f t="shared" si="36"/>
         <v>Electricity Supply</v>
@@ -11219,7 +11281,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>328</v>
@@ -11245,7 +11307,7 @@
       <c r="S132" s="12"/>
       <c r="T132" s="12"/>
     </row>
-    <row r="133" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="67" t="str">
         <f t="shared" ref="A133:C137" si="38">A$102</f>
         <v>Electricity Supply</v>
@@ -11259,7 +11321,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>329</v>
@@ -11285,7 +11347,7 @@
       <c r="S133" s="12"/>
       <c r="T133" s="12"/>
     </row>
-    <row r="134" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="67" t="str">
         <f t="shared" si="38"/>
         <v>Electricity Supply</v>
@@ -11299,7 +11361,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>330</v>
@@ -11325,7 +11387,7 @@
       <c r="S134" s="12"/>
       <c r="T134" s="12"/>
     </row>
-    <row r="135" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="67" t="str">
         <f t="shared" si="38"/>
         <v>Electricity Supply</v>
@@ -11339,7 +11401,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>328</v>
@@ -11365,7 +11427,7 @@
       <c r="S135" s="12"/>
       <c r="T135" s="12"/>
     </row>
-    <row r="136" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="67" t="str">
         <f t="shared" si="38"/>
         <v>Electricity Supply</v>
@@ -11379,7 +11441,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>329</v>
@@ -11405,7 +11467,7 @@
       <c r="S136" s="12"/>
       <c r="T136" s="12"/>
     </row>
-    <row r="137" spans="1:20" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A137" s="67" t="str">
         <f t="shared" si="38"/>
         <v>Electricity Supply</v>
@@ -11419,7 +11481,7 @@
         <v>Percentage Reduction in Plant Downtime</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>330</v>
@@ -11428,7 +11490,7 @@
         <v>406</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H137" s="66">
         <v>182</v>
@@ -11454,7 +11516,7 @@
         <v>331</v>
       </c>
       <c r="P137" s="86" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Q137" s="12" t="s">
         <v>333</v>
@@ -11467,7 +11529,7 @@
       </c>
       <c r="T137" s="12"/>
     </row>
-    <row r="138" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>8</v>
       </c>
@@ -11504,7 +11566,7 @@
         <v>323</v>
       </c>
       <c r="P138" s="86" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="Q138" s="12" t="s">
         <v>325</v>
@@ -11517,7 +11579,7 @@
       </c>
       <c r="T138" s="12"/>
     </row>
-    <row r="139" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A139" s="62" t="s">
         <v>8</v>
       </c>
@@ -11554,7 +11616,7 @@
         <v>45</v>
       </c>
       <c r="P139" s="86" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="Q139" s="62" t="s">
         <v>274</v>
@@ -11567,7 +11629,7 @@
       </c>
       <c r="T139" s="62"/>
     </row>
-    <row r="140" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="62" t="s">
         <v>8</v>
       </c>
@@ -11578,11 +11640,11 @@
         <v>155</v>
       </c>
       <c r="D140" s="62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E140" s="62"/>
       <c r="F140" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G140" s="62"/>
       <c r="H140" s="63" t="s">
@@ -11605,7 +11667,7 @@
       <c r="S140" s="12"/>
       <c r="T140" s="65"/>
     </row>
-    <row r="141" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="65" t="str">
         <f t="shared" ref="A141:C149" si="39">A$140</f>
         <v>Electricity Supply</v>
@@ -11647,7 +11709,7 @@
       <c r="S141" s="12"/>
       <c r="T141" s="65"/>
     </row>
-    <row r="142" spans="1:20" s="7" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="7" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A142" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -11689,10 +11751,10 @@
         <v>2</v>
       </c>
       <c r="O142" s="90" t="s">
+        <v>755</v>
+      </c>
+      <c r="P142" s="86" t="s">
         <v>756</v>
-      </c>
-      <c r="P142" s="86" t="s">
-        <v>757</v>
       </c>
       <c r="Q142" s="62" t="s">
         <v>276</v>
@@ -11705,7 +11767,7 @@
       </c>
       <c r="T142" s="62"/>
     </row>
-    <row r="143" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -11745,7 +11807,7 @@
       <c r="S143" s="65"/>
       <c r="T143" s="65"/>
     </row>
-    <row r="144" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -11759,11 +11821,11 @@
         <v>Subsidy for Elec Production by Fuel</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E144" s="65"/>
       <c r="F144" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G144" s="65"/>
       <c r="H144" s="63">
@@ -11794,7 +11856,7 @@
         <v>złoty/MWh</v>
       </c>
       <c r="P144" s="86" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="Q144" s="62" t="s">
         <v>276</v>
@@ -11808,7 +11870,7 @@
       </c>
       <c r="T144" s="62"/>
     </row>
-    <row r="145" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A145" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -11857,7 +11919,7 @@
         <v>złoty/MWh</v>
       </c>
       <c r="P145" s="86" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Q145" s="62" t="s">
         <v>276</v>
@@ -11871,7 +11933,7 @@
       </c>
       <c r="T145" s="62"/>
     </row>
-    <row r="146" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A146" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -11920,7 +11982,7 @@
         <v>złoty/MWh</v>
       </c>
       <c r="P146" s="86" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="Q146" s="62" t="s">
         <v>276</v>
@@ -11934,7 +11996,7 @@
       </c>
       <c r="T146" s="62"/>
     </row>
-    <row r="147" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A147" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -11983,7 +12045,7 @@
         <v>złoty/MWh</v>
       </c>
       <c r="P147" s="86" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="Q147" s="62" t="s">
         <v>276</v>
@@ -11997,7 +12059,7 @@
       </c>
       <c r="T147" s="62"/>
     </row>
-    <row r="148" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -12011,11 +12073,11 @@
         <v>Subsidy for Elec Production by Fuel</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E148" s="65"/>
       <c r="F148" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G148" s="65"/>
       <c r="H148" s="63"/>
@@ -12037,7 +12099,7 @@
       <c r="S148" s="65"/>
       <c r="T148" s="62"/>
     </row>
-    <row r="149" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A149" s="65" t="str">
         <f t="shared" si="39"/>
         <v>Electricity Supply</v>
@@ -12051,11 +12113,11 @@
         <v>Subsidy for Elec Production by Fuel</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E149" s="65"/>
       <c r="F149" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G149" s="65"/>
       <c r="H149" s="63">
@@ -12086,7 +12148,7 @@
         <v>złoty/MWh</v>
       </c>
       <c r="P149" s="86" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="Q149" s="62" t="s">
         <v>276</v>
@@ -12100,7 +12162,7 @@
       </c>
       <c r="T149" s="62"/>
     </row>
-    <row r="150" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="62" t="s">
         <v>9</v>
       </c>
@@ -12137,7 +12199,7 @@
         <v>44</v>
       </c>
       <c r="P150" s="86" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Q150" s="62" t="s">
         <v>278</v>
@@ -12150,7 +12212,7 @@
       </c>
       <c r="T150" s="62"/>
     </row>
-    <row r="151" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="62" t="s">
         <v>9</v>
       </c>
@@ -12187,7 +12249,7 @@
         <v>44</v>
       </c>
       <c r="P151" s="86" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q151" s="62" t="s">
         <v>280</v>
@@ -12200,7 +12262,7 @@
       </c>
       <c r="T151" s="65"/>
     </row>
-    <row r="152" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="62" t="s">
         <v>9</v>
       </c>
@@ -12237,7 +12299,7 @@
         <v>44</v>
       </c>
       <c r="P152" s="86" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Q152" s="62" t="s">
         <v>282</v>
@@ -12250,7 +12312,7 @@
       </c>
       <c r="T152" s="65"/>
     </row>
-    <row r="153" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A153" s="62" t="s">
         <v>9</v>
       </c>
@@ -12292,7 +12354,7 @@
         <v>41</v>
       </c>
       <c r="P153" s="86" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="Q153" s="62" t="s">
         <v>284</v>
@@ -12307,7 +12369,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="154" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A154" s="65" t="str">
         <f>A$153</f>
         <v>Industry</v>
@@ -12356,7 +12418,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P154" s="86" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q154" s="62" t="s">
         <v>284</v>
@@ -12373,7 +12435,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="155" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A155" s="65" t="str">
         <f t="shared" ref="A155:A160" si="46">A$153</f>
         <v>Industry</v>
@@ -12422,7 +12484,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P155" s="86" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q155" s="62" t="s">
         <v>284</v>
@@ -12439,7 +12501,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="156" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A156" s="65" t="str">
         <f t="shared" si="46"/>
         <v>Industry</v>
@@ -12488,7 +12550,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P156" s="86" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="Q156" s="62" t="s">
         <v>284</v>
@@ -12505,7 +12567,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A157" s="65" t="str">
         <f t="shared" si="46"/>
         <v>Industry</v>
@@ -12554,7 +12616,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P157" s="86" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q157" s="62" t="s">
         <v>284</v>
@@ -12571,7 +12633,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A158" s="65" t="str">
         <f t="shared" si="46"/>
         <v>Industry</v>
@@ -12620,7 +12682,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P158" s="86" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q158" s="62" t="s">
         <v>284</v>
@@ -12637,7 +12699,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="96" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A159" s="65" t="str">
         <f t="shared" si="46"/>
         <v>Industry</v>
@@ -12686,7 +12748,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P159" s="86" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="Q159" s="62" t="s">
         <v>284</v>
@@ -12703,7 +12765,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="160" spans="1:20" s="7" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A160" s="65" t="str">
         <f t="shared" si="46"/>
         <v>Industry</v>
@@ -12752,7 +12814,7 @@
         <v>% reduction in energy use</v>
       </c>
       <c r="P160" s="86" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Q160" s="62" t="s">
         <v>284</v>
@@ -12769,7 +12831,7 @@
         <v>O. Siddiqui, 2009, "Assessment of Achievable Potential from Energy Efficiency and Demand Response Programs in the U.S.", EPRI, http://www.epri.com/abstracts/pages/productabstract.aspx?ProductID=000000000001016987, Page 4-32, Figure 4-33</v>
       </c>
     </row>
-    <row r="161" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="62" t="s">
         <v>9</v>
       </c>
@@ -12819,15 +12881,15 @@
       </c>
       <c r="T161" s="65"/>
     </row>
-    <row r="162" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="62" t="s">
         <v>9</v>
       </c>
       <c r="B162" s="62" t="s">
+        <v>675</v>
+      </c>
+      <c r="C162" s="62" t="s">
         <v>676</v>
-      </c>
-      <c r="C162" s="62" t="s">
-        <v>677</v>
       </c>
       <c r="D162" s="62"/>
       <c r="E162" s="62"/>
@@ -12856,7 +12918,7 @@
         <v>40</v>
       </c>
       <c r="P162" s="86" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="Q162" s="62" t="s">
         <v>288</v>
@@ -12869,7 +12931,7 @@
       </c>
       <c r="T162" s="62"/>
     </row>
-    <row r="163" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="62" t="s">
         <v>9</v>
       </c>
@@ -12906,7 +12968,7 @@
         <v>414</v>
       </c>
       <c r="P163" s="86" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="Q163" s="62" t="s">
         <v>288</v>
@@ -12919,7 +12981,7 @@
       </c>
       <c r="T163" s="62"/>
     </row>
-    <row r="164" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="62" t="s">
         <v>9</v>
       </c>
@@ -12956,7 +13018,7 @@
         <v>44</v>
       </c>
       <c r="P164" s="86" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q164" s="62" t="s">
         <v>290</v>
@@ -12969,7 +13031,7 @@
       </c>
       <c r="T164" s="62"/>
     </row>
-    <row r="165" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="62" t="s">
         <v>9</v>
       </c>
@@ -13006,7 +13068,7 @@
         <v>44</v>
       </c>
       <c r="P165" s="86" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="Q165" s="62" t="s">
         <v>292</v>
@@ -13019,7 +13081,7 @@
       </c>
       <c r="T165" s="62"/>
     </row>
-    <row r="166" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="62" t="s">
         <v>9</v>
       </c>
@@ -13056,7 +13118,7 @@
         <v>44</v>
       </c>
       <c r="P166" s="86" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="Q166" s="62" t="s">
         <v>294</v>
@@ -13069,7 +13131,7 @@
       </c>
       <c r="T166" s="62"/>
     </row>
-    <row r="167" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="62" t="s">
         <v>9</v>
       </c>
@@ -13106,7 +13168,7 @@
         <v>44</v>
       </c>
       <c r="P167" s="86" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Q167" s="62" t="s">
         <v>296</v>
@@ -13119,7 +13181,7 @@
       </c>
       <c r="T167" s="62"/>
     </row>
-    <row r="168" spans="1:20" ht="80" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="62" t="s">
         <v>174</v>
       </c>
@@ -13156,7 +13218,7 @@
         <v>44</v>
       </c>
       <c r="P168" s="86" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="Q168" s="62" t="s">
         <v>298</v>
@@ -13171,7 +13233,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="62" t="s">
         <v>174</v>
       </c>
@@ -13207,7 +13269,7 @@
       <c r="S169" s="62"/>
       <c r="T169" s="62"/>
     </row>
-    <row r="170" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="62" t="s">
         <v>174</v>
       </c>
@@ -13241,7 +13303,7 @@
       <c r="S170" s="62"/>
       <c r="T170" s="62"/>
     </row>
-    <row r="171" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="62" t="s">
         <v>174</v>
       </c>
@@ -13291,7 +13353,7 @@
       </c>
       <c r="T171" s="62"/>
     </row>
-    <row r="172" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" s="62" t="s">
         <v>174</v>
       </c>
@@ -13328,7 +13390,7 @@
         <v>44</v>
       </c>
       <c r="P172" s="86" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Q172" s="62" t="s">
         <v>302</v>
@@ -13341,7 +13403,7 @@
       </c>
       <c r="T172" s="62"/>
     </row>
-    <row r="173" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="62" t="s">
         <v>174</v>
       </c>
@@ -13391,7 +13453,7 @@
       </c>
       <c r="T173" s="62"/>
     </row>
-    <row r="174" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="62" t="s">
         <v>174</v>
       </c>
@@ -13428,7 +13490,7 @@
         <v>44</v>
       </c>
       <c r="P174" s="86" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="Q174" s="62" t="s">
         <v>306</v>
@@ -13441,7 +13503,7 @@
       </c>
       <c r="T174" s="62"/>
     </row>
-    <row r="175" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="62" t="s">
         <v>174</v>
       </c>
@@ -13475,7 +13537,7 @@
       <c r="S175" s="62"/>
       <c r="T175" s="62"/>
     </row>
-    <row r="176" spans="1:20" ht="48" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="62" t="s">
         <v>174</v>
       </c>
@@ -13525,7 +13587,7 @@
       </c>
       <c r="T176" s="62"/>
     </row>
-    <row r="177" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>481</v>
       </c>
@@ -13562,7 +13624,7 @@
         <v>74</v>
       </c>
       <c r="P177" s="90" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="Q177" s="12" t="s">
         <v>314</v>
@@ -13575,15 +13637,15 @@
       </c>
       <c r="T177" s="12"/>
     </row>
-    <row r="178" spans="1:20" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>481</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D178" s="12"/>
       <c r="E178" s="12"/>
@@ -13612,7 +13674,7 @@
         <v>40</v>
       </c>
       <c r="P178" s="90" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="Q178" s="12" t="s">
         <v>482</v>
@@ -13625,7 +13687,7 @@
       </c>
       <c r="T178" s="12"/>
     </row>
-    <row r="179" spans="1:20" ht="64" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="62" t="s">
         <v>10</v>
       </c>
@@ -13662,7 +13724,7 @@
         <v>44</v>
       </c>
       <c r="P179" s="86" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="Q179" s="62" t="s">
         <v>310</v>
@@ -13675,7 +13737,7 @@
       </c>
       <c r="T179" s="62"/>
     </row>
-    <row r="180" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A180" s="62" t="s">
         <v>10</v>
       </c>
@@ -13713,10 +13775,10 @@
         <v>5</v>
       </c>
       <c r="O180" s="86" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P180" s="86" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="Q180" s="62" t="s">
         <v>312</v>
@@ -13731,7 +13793,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="181" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A181" s="65" t="str">
         <f>A$180</f>
         <v>Cross-Sector</v>
@@ -13780,7 +13842,7 @@
         <v>złoty/metric ton CO2e</v>
       </c>
       <c r="P181" s="86" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="Q181" s="65" t="str">
         <f t="shared" ref="Q181:R184" si="50">Q$180</f>
@@ -13793,7 +13855,7 @@
       <c r="S181" s="12"/>
       <c r="T181" s="65"/>
     </row>
-    <row r="182" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="65" t="str">
         <f t="shared" ref="A182:C186" si="51">A$180</f>
         <v>Cross-Sector</v>
@@ -13842,7 +13904,7 @@
         <v>złoty/metric ton CO2e</v>
       </c>
       <c r="P182" s="86" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="Q182" s="65" t="str">
         <f t="shared" si="50"/>
@@ -13855,7 +13917,7 @@
       <c r="S182" s="12"/>
       <c r="T182" s="65"/>
     </row>
-    <row r="183" spans="1:20" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="65" t="str">
         <f t="shared" si="51"/>
         <v>Cross-Sector</v>
@@ -13904,7 +13966,7 @@
         <v>złoty/metric ton CO2e</v>
       </c>
       <c r="P183" s="86" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="Q183" s="65" t="str">
         <f t="shared" si="50"/>
@@ -13917,7 +13979,7 @@
       <c r="S183" s="12"/>
       <c r="T183" s="65"/>
     </row>
-    <row r="184" spans="1:20" s="7" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A184" s="65" t="str">
         <f t="shared" si="51"/>
         <v>Cross-Sector</v>
@@ -13966,7 +14028,7 @@
         <v>złoty/metric ton CO2e</v>
       </c>
       <c r="P184" s="86" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="Q184" s="65" t="str">
         <f t="shared" si="50"/>
@@ -13979,7 +14041,7 @@
       <c r="S184" s="12"/>
       <c r="T184" s="65"/>
     </row>
-    <row r="185" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="65" t="str">
         <f t="shared" si="51"/>
         <v>Cross-Sector</v>
@@ -14019,7 +14081,7 @@
       <c r="S185" s="12"/>
       <c r="T185" s="65"/>
     </row>
-    <row r="186" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="65" t="str">
         <f t="shared" si="51"/>
         <v>Cross-Sector</v>
@@ -14059,7 +14121,7 @@
       <c r="S186" s="12"/>
       <c r="T186" s="65"/>
     </row>
-    <row r="187" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="62" t="s">
         <v>10</v>
       </c>
@@ -14097,7 +14159,7 @@
       <c r="S187" s="65"/>
       <c r="T187" s="65"/>
     </row>
-    <row r="188" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="65" t="str">
         <f>A$187</f>
         <v>Cross-Sector</v>
@@ -14111,11 +14173,11 @@
         <v>Percent Reduction in BAU Subsidies</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E188" s="62"/>
       <c r="F188" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G188" s="62"/>
       <c r="H188" s="63">
@@ -14142,7 +14204,7 @@
         <v>183</v>
       </c>
       <c r="P188" s="90" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="Q188" s="12" t="s">
         <v>316</v>
@@ -14155,7 +14217,7 @@
       </c>
       <c r="T188" s="65"/>
     </row>
-    <row r="189" spans="1:20" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="65" t="str">
         <f t="shared" ref="A189:A202" si="54">A$187</f>
         <v>Cross-Sector</v>
@@ -14204,7 +14266,7 @@
         <v>% reduction in BAU subsidies</v>
       </c>
       <c r="P189" s="90" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="Q189" s="12" t="s">
         <v>316</v>
@@ -14217,7 +14279,7 @@
       </c>
       <c r="T189" s="65"/>
     </row>
-    <row r="190" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14279,7 +14341,7 @@
       </c>
       <c r="T190" s="65"/>
     </row>
-    <row r="191" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14321,7 +14383,7 @@
       <c r="S191" s="62"/>
       <c r="T191" s="65"/>
     </row>
-    <row r="192" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14339,7 +14401,7 @@
       </c>
       <c r="E192" s="62"/>
       <c r="F192" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G192" s="62"/>
       <c r="H192" s="63">
@@ -14363,7 +14425,7 @@
       <c r="S192" s="62"/>
       <c r="T192" s="65"/>
     </row>
-    <row r="193" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14425,7 +14487,7 @@
       </c>
       <c r="T193" s="65"/>
     </row>
-    <row r="194" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14467,7 +14529,7 @@
       <c r="S194" s="65"/>
       <c r="T194" s="65"/>
     </row>
-    <row r="195" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14529,7 +14591,7 @@
       </c>
       <c r="T195" s="65"/>
     </row>
-    <row r="196" spans="1:20" s="7" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14591,7 +14653,7 @@
       </c>
       <c r="T196" s="65"/>
     </row>
-    <row r="197" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14633,7 +14695,7 @@
       <c r="S197" s="65"/>
       <c r="T197" s="65"/>
     </row>
-    <row r="198" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14675,7 +14737,7 @@
       <c r="S198" s="65"/>
       <c r="T198" s="65"/>
     </row>
-    <row r="199" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14715,7 +14777,7 @@
       <c r="S199" s="62"/>
       <c r="T199" s="65"/>
     </row>
-    <row r="200" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14757,7 +14819,7 @@
       <c r="S200" s="65"/>
       <c r="T200" s="65"/>
     </row>
-    <row r="201" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14797,7 +14859,7 @@
       <c r="S201" s="65"/>
       <c r="T201" s="65"/>
     </row>
-    <row r="202" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="65" t="str">
         <f t="shared" si="54"/>
         <v>Cross-Sector</v>
@@ -14811,11 +14873,11 @@
         <v>Percent Reduction in BAU Subsidies</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E202" s="62"/>
       <c r="F202" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G202" s="62"/>
       <c r="H202" s="63"/>
@@ -14837,7 +14899,7 @@
       <c r="S202" s="65"/>
       <c r="T202" s="65"/>
     </row>
-    <row r="203" spans="1:20" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>10</v>
       </c>
@@ -14869,7 +14931,7 @@
       <c r="S203" s="62"/>
       <c r="T203" s="12"/>
     </row>
-    <row r="204" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A204" s="62" t="s">
         <v>10</v>
       </c>
@@ -14910,7 +14972,7 @@
         <v>184</v>
       </c>
       <c r="P204" s="86" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q204" s="12" t="s">
         <v>318</v>
@@ -14923,7 +14985,7 @@
       </c>
       <c r="T204" s="65"/>
     </row>
-    <row r="205" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A205" s="68" t="str">
         <f t="shared" ref="A205:C218" si="57">A$204</f>
         <v>Cross-Sector</v>
@@ -14937,11 +14999,11 @@
         <v>Additional Fuel Tax Rate by Fuel</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E205" s="12"/>
       <c r="F205" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G205" s="65"/>
       <c r="H205" s="63">
@@ -14972,7 +15034,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P205" s="86" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="Q205" s="75" t="str">
         <f t="shared" ref="Q205:R206" si="60">Q$204</f>
@@ -14988,7 +15050,7 @@
       </c>
       <c r="T205" s="65"/>
     </row>
-    <row r="206" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A206" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15037,7 +15099,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P206" s="86" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q206" s="75" t="str">
         <f t="shared" si="60"/>
@@ -15053,7 +15115,7 @@
       </c>
       <c r="T206" s="65"/>
     </row>
-    <row r="207" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15095,7 +15157,7 @@
       <c r="S207" s="65"/>
       <c r="T207" s="65"/>
     </row>
-    <row r="208" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15137,7 +15199,7 @@
       <c r="S208" s="65"/>
       <c r="T208" s="65"/>
     </row>
-    <row r="209" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15155,7 +15217,7 @@
       </c>
       <c r="E209" s="12"/>
       <c r="F209" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G209" s="65"/>
       <c r="H209" s="63" t="s">
@@ -15179,7 +15241,7 @@
       <c r="S209" s="65"/>
       <c r="T209" s="65"/>
     </row>
-    <row r="210" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15221,7 +15283,7 @@
       <c r="S210" s="65"/>
       <c r="T210" s="65"/>
     </row>
-    <row r="211" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15263,7 +15325,7 @@
       <c r="S211" s="65"/>
       <c r="T211" s="65"/>
     </row>
-    <row r="212" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A212" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15312,7 +15374,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P212" s="86" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="Q212" s="75" t="str">
         <f t="shared" ref="Q212:R213" si="62">Q$204</f>
@@ -15328,7 +15390,7 @@
       </c>
       <c r="T212" s="65"/>
     </row>
-    <row r="213" spans="1:20" s="7" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A213" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15377,7 +15439,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P213" s="86" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q213" s="75" t="str">
         <f t="shared" si="62"/>
@@ -15393,7 +15455,7 @@
       </c>
       <c r="T213" s="65"/>
     </row>
-    <row r="214" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15435,7 +15497,7 @@
       <c r="S214" s="65"/>
       <c r="T214" s="65"/>
     </row>
-    <row r="215" spans="1:20" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15477,7 +15539,7 @@
       <c r="S215" s="65"/>
       <c r="T215" s="65"/>
     </row>
-    <row r="216" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15517,7 +15579,7 @@
       <c r="S216" s="65"/>
       <c r="T216" s="62"/>
     </row>
-    <row r="217" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15559,7 +15621,7 @@
       <c r="S217" s="62"/>
       <c r="T217" s="62"/>
     </row>
-    <row r="218" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" ht="105" x14ac:dyDescent="0.25">
       <c r="A218" s="68" t="str">
         <f t="shared" si="57"/>
         <v>Cross-Sector</v>
@@ -15573,11 +15635,11 @@
         <v>Additional Fuel Tax Rate by Fuel</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E218" s="12"/>
       <c r="F218" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G218" s="65"/>
       <c r="H218" s="95">
@@ -15608,7 +15670,7 @@
         <v>% of BAU price</v>
       </c>
       <c r="P218" s="86" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="Q218" s="98" t="str">
         <f t="shared" si="63"/>
@@ -15624,7 +15686,7 @@
       </c>
       <c r="T218" s="62"/>
     </row>
-    <row r="219" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A219" s="62" t="s">
         <v>35</v>
       </c>
@@ -15678,7 +15740,7 @@
       </c>
       <c r="T219" s="62"/>
     </row>
-    <row r="220" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A220" s="65" t="str">
         <f t="shared" ref="A220:A225" si="64">A$219</f>
         <v>R&amp;D</v>
@@ -15740,7 +15802,7 @@
       </c>
       <c r="T220" s="62"/>
     </row>
-    <row r="221" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A221" s="65" t="str">
         <f t="shared" si="64"/>
         <v>R&amp;D</v>
@@ -15802,7 +15864,7 @@
       </c>
       <c r="T221" s="62"/>
     </row>
-    <row r="222" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A222" s="65" t="str">
         <f t="shared" si="64"/>
         <v>R&amp;D</v>
@@ -15864,7 +15926,7 @@
       </c>
       <c r="T222" s="62"/>
     </row>
-    <row r="223" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A223" s="65" t="str">
         <f t="shared" si="64"/>
         <v>R&amp;D</v>
@@ -15926,7 +15988,7 @@
       </c>
       <c r="T223" s="62"/>
     </row>
-    <row r="224" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A224" s="65" t="str">
         <f t="shared" si="64"/>
         <v>R&amp;D</v>
@@ -15988,7 +16050,7 @@
       </c>
       <c r="T224" s="62"/>
     </row>
-    <row r="225" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A225" s="65" t="str">
         <f t="shared" si="64"/>
         <v>R&amp;D</v>
@@ -16043,7 +16105,7 @@
       </c>
       <c r="T225" s="62"/>
     </row>
-    <row r="226" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A226" s="62" t="s">
         <v>35</v>
       </c>
@@ -16055,11 +16117,11 @@
         <v>376</v>
       </c>
       <c r="D226" s="62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E226" s="62"/>
       <c r="F226" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G226" s="62"/>
       <c r="H226" s="63">
@@ -16099,7 +16161,7 @@
       </c>
       <c r="T226" s="62"/>
     </row>
-    <row r="227" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A227" s="65" t="str">
         <f>A$226</f>
         <v>R&amp;D</v>
@@ -16161,7 +16223,7 @@
       </c>
       <c r="T227" s="62"/>
     </row>
-    <row r="228" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A228" s="65" t="str">
         <f t="shared" ref="A228:C235" si="70">A$226</f>
         <v>R&amp;D</v>
@@ -16223,7 +16285,7 @@
       </c>
       <c r="T228" s="62"/>
     </row>
-    <row r="229" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A229" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16285,7 +16347,7 @@
       </c>
       <c r="T229" s="62"/>
     </row>
-    <row r="230" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A230" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16299,11 +16361,11 @@
         <v>RnD Electricity Capital Cost Perc Reduction</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E230" s="65"/>
       <c r="F230" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G230" s="62"/>
       <c r="H230" s="63">
@@ -16334,7 +16396,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P230" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Q230" s="62" t="s">
         <v>320</v>
@@ -16347,7 +16409,7 @@
       </c>
       <c r="T230" s="62"/>
     </row>
-    <row r="231" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A231" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16409,7 +16471,7 @@
       </c>
       <c r="T231" s="62"/>
     </row>
-    <row r="232" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A232" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16471,7 +16533,7 @@
       </c>
       <c r="T232" s="62"/>
     </row>
-    <row r="233" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A233" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16533,7 +16595,7 @@
       </c>
       <c r="T233" s="62"/>
     </row>
-    <row r="234" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A234" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16547,11 +16609,11 @@
         <v>RnD Electricity Capital Cost Perc Reduction</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E234" s="65"/>
       <c r="F234" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G234" s="62"/>
       <c r="H234" s="63">
@@ -16582,7 +16644,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P234" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q234" s="62" t="s">
         <v>320</v>
@@ -16595,7 +16657,7 @@
       </c>
       <c r="T234" s="62"/>
     </row>
-    <row r="235" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A235" s="65" t="str">
         <f t="shared" si="70"/>
         <v>R&amp;D</v>
@@ -16609,11 +16671,11 @@
         <v>RnD Electricity Capital Cost Perc Reduction</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E235" s="65"/>
       <c r="F235" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G235" s="62"/>
       <c r="H235" s="63">
@@ -16644,7 +16706,7 @@
         <v>% reduction in cost</v>
       </c>
       <c r="P235" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q235" s="62" t="s">
         <v>320</v>
@@ -16657,7 +16719,7 @@
       </c>
       <c r="T235" s="62"/>
     </row>
-    <row r="236" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A236" s="62" t="s">
         <v>35</v>
       </c>
@@ -16713,7 +16775,7 @@
       </c>
       <c r="T236" s="62"/>
     </row>
-    <row r="237" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A237" s="65" t="str">
         <f>A$236</f>
         <v>R&amp;D</v>
@@ -16775,7 +16837,7 @@
       </c>
       <c r="T237" s="62"/>
     </row>
-    <row r="238" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A238" s="65" t="str">
         <f t="shared" ref="A238:A243" si="73">A$236</f>
         <v>R&amp;D</v>
@@ -16837,7 +16899,7 @@
       </c>
       <c r="T238" s="62"/>
     </row>
-    <row r="239" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A239" s="65" t="str">
         <f t="shared" si="73"/>
         <v>R&amp;D</v>
@@ -16899,7 +16961,7 @@
       </c>
       <c r="T239" s="62"/>
     </row>
-    <row r="240" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A240" s="65" t="str">
         <f t="shared" si="73"/>
         <v>R&amp;D</v>
@@ -16961,7 +17023,7 @@
       </c>
       <c r="T240" s="62"/>
     </row>
-    <row r="241" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A241" s="65" t="str">
         <f t="shared" si="73"/>
         <v>R&amp;D</v>
@@ -17023,7 +17085,7 @@
       </c>
       <c r="T241" s="62"/>
     </row>
-    <row r="242" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A242" s="65" t="str">
         <f t="shared" si="73"/>
         <v>R&amp;D</v>
@@ -17085,7 +17147,7 @@
       </c>
       <c r="T242" s="62"/>
     </row>
-    <row r="243" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A243" s="65" t="str">
         <f t="shared" si="73"/>
         <v>R&amp;D</v>
@@ -17147,7 +17209,7 @@
       </c>
       <c r="T243" s="62"/>
     </row>
-    <row r="244" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
         <v>35</v>
       </c>
@@ -17203,7 +17265,7 @@
       </c>
       <c r="T244" s="62"/>
     </row>
-    <row r="245" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A245" s="65" t="str">
         <f>A$244</f>
         <v>R&amp;D</v>
@@ -17265,7 +17327,7 @@
       </c>
       <c r="T245" s="62"/>
     </row>
-    <row r="246" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A246" s="65" t="str">
         <f>A$244</f>
         <v>R&amp;D</v>
@@ -17327,7 +17389,7 @@
       </c>
       <c r="T246" s="62"/>
     </row>
-    <row r="247" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A247" s="65" t="str">
         <f>A$244</f>
         <v>R&amp;D</v>
@@ -17389,7 +17451,7 @@
       </c>
       <c r="T247" s="62"/>
     </row>
-    <row r="248" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A248" s="65" t="str">
         <f>A$244</f>
         <v>R&amp;D</v>
@@ -17451,7 +17513,7 @@
       </c>
       <c r="T248" s="62"/>
     </row>
-    <row r="249" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A249" s="65" t="str">
         <f>A$244</f>
         <v>R&amp;D</v>
@@ -17513,7 +17575,7 @@
       </c>
       <c r="T249" s="62"/>
     </row>
-    <row r="250" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A250" s="62" t="s">
         <v>35</v>
       </c>
@@ -17567,7 +17629,7 @@
       </c>
       <c r="T250" s="62"/>
     </row>
-    <row r="251" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A251" s="65" t="str">
         <f>A$250</f>
         <v>R&amp;D</v>
@@ -17629,7 +17691,7 @@
       </c>
       <c r="T251" s="62"/>
     </row>
-    <row r="252" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="65" t="str">
         <f>A$250</f>
         <v>R&amp;D</v>
@@ -17669,7 +17731,7 @@
       <c r="S252" s="62"/>
       <c r="T252" s="62"/>
     </row>
-    <row r="253" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A253" s="65" t="str">
         <f>A$250</f>
         <v>R&amp;D</v>
@@ -17731,7 +17793,7 @@
       </c>
       <c r="T253" s="62"/>
     </row>
-    <row r="254" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A254" s="65" t="str">
         <f>A$250</f>
         <v>R&amp;D</v>
@@ -17793,7 +17855,7 @@
       </c>
       <c r="T254" s="62"/>
     </row>
-    <row r="255" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A255" s="65" t="str">
         <f>A$250</f>
         <v>R&amp;D</v>
@@ -17855,7 +17917,7 @@
       </c>
       <c r="T255" s="62"/>
     </row>
-    <row r="256" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A256" s="62" t="s">
         <v>35</v>
       </c>
@@ -17909,7 +17971,7 @@
       </c>
       <c r="T256" s="62"/>
     </row>
-    <row r="257" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A257" s="62" t="s">
         <v>35</v>
       </c>
@@ -17921,11 +17983,11 @@
         <v>381</v>
       </c>
       <c r="D257" s="62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E257" s="62"/>
       <c r="F257" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G257" s="62"/>
       <c r="H257" s="63">
@@ -17965,7 +18027,7 @@
       </c>
       <c r="T257" s="62"/>
     </row>
-    <row r="258" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A258" s="65" t="str">
         <f>A$257</f>
         <v>R&amp;D</v>
@@ -18027,7 +18089,7 @@
       </c>
       <c r="T258" s="62"/>
     </row>
-    <row r="259" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A259" s="65" t="str">
         <f t="shared" ref="A259:C266" si="81">A$257</f>
         <v>R&amp;D</v>
@@ -18089,7 +18151,7 @@
       </c>
       <c r="T259" s="62"/>
     </row>
-    <row r="260" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18131,7 +18193,7 @@
       <c r="S260" s="62"/>
       <c r="T260" s="62"/>
     </row>
-    <row r="261" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18145,11 +18207,11 @@
         <v>RnD Electricity Fuel Use Perc Reduction</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E261" s="65"/>
       <c r="F261" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G261" s="62"/>
       <c r="H261" s="63" t="s">
@@ -18173,7 +18235,7 @@
       <c r="S261" s="62"/>
       <c r="T261" s="62"/>
     </row>
-    <row r="262" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18215,7 +18277,7 @@
       <c r="S262" s="62"/>
       <c r="T262" s="62"/>
     </row>
-    <row r="263" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18257,7 +18319,7 @@
       <c r="S263" s="62"/>
       <c r="T263" s="62"/>
     </row>
-    <row r="264" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A264" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18319,7 +18381,7 @@
       </c>
       <c r="T264" s="62"/>
     </row>
-    <row r="265" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A265" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18333,11 +18395,11 @@
         <v>RnD Electricity Fuel Use Perc Reduction</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E265" s="65"/>
       <c r="F265" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G265" s="62"/>
       <c r="H265" s="63">
@@ -18368,7 +18430,7 @@
         <v>% reduction in fuel use</v>
       </c>
       <c r="P265" s="62" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q265" s="62" t="s">
         <v>320</v>
@@ -18381,7 +18443,7 @@
       </c>
       <c r="T265" s="62"/>
     </row>
-    <row r="266" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="65" t="str">
         <f t="shared" si="81"/>
         <v>R&amp;D</v>
@@ -18395,11 +18457,11 @@
         <v>RnD Electricity Fuel Use Perc Reduction</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E266" s="65"/>
       <c r="F266" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G266" s="62"/>
       <c r="H266" s="63"/>
@@ -18421,7 +18483,7 @@
       <c r="S266" s="62"/>
       <c r="T266" s="62"/>
     </row>
-    <row r="267" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A267" s="62" t="s">
         <v>35</v>
       </c>
@@ -18477,7 +18539,7 @@
       </c>
       <c r="T267" s="62"/>
     </row>
-    <row r="268" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A268" s="65" t="str">
         <f>A$267</f>
         <v>R&amp;D</v>
@@ -18539,7 +18601,7 @@
       </c>
       <c r="T268" s="62"/>
     </row>
-    <row r="269" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A269" s="65" t="str">
         <f t="shared" ref="A269:A274" si="85">A$267</f>
         <v>R&amp;D</v>
@@ -18601,7 +18663,7 @@
       </c>
       <c r="T269" s="62"/>
     </row>
-    <row r="270" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A270" s="65" t="str">
         <f t="shared" si="85"/>
         <v>R&amp;D</v>
@@ -18663,7 +18725,7 @@
       </c>
       <c r="T270" s="62"/>
     </row>
-    <row r="271" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A271" s="65" t="str">
         <f t="shared" si="85"/>
         <v>R&amp;D</v>
@@ -18725,7 +18787,7 @@
       </c>
       <c r="T271" s="62"/>
     </row>
-    <row r="272" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A272" s="65" t="str">
         <f t="shared" si="85"/>
         <v>R&amp;D</v>
@@ -18787,7 +18849,7 @@
       </c>
       <c r="T272" s="62"/>
     </row>
-    <row r="273" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A273" s="65" t="str">
         <f t="shared" si="85"/>
         <v>R&amp;D</v>
@@ -18848,7 +18910,7 @@
       </c>
       <c r="T273" s="62"/>
     </row>
-    <row r="274" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A274" s="65" t="str">
         <f t="shared" si="85"/>
         <v>R&amp;D</v>
@@ -18909,7 +18971,7 @@
       </c>
       <c r="T274" s="62"/>
     </row>
-    <row r="275" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A275" s="62" t="s">
         <v>35</v>
       </c>
@@ -18964,7 +19026,7 @@
       </c>
       <c r="T275" s="62"/>
     </row>
-    <row r="276" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A276" s="65" t="str">
         <f>A$275</f>
         <v>R&amp;D</v>
@@ -19025,7 +19087,7 @@
       </c>
       <c r="T276" s="62"/>
     </row>
-    <row r="277" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A277" s="65" t="str">
         <f>A$275</f>
         <v>R&amp;D</v>
@@ -19086,7 +19148,7 @@
       </c>
       <c r="T277" s="62"/>
     </row>
-    <row r="278" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A278" s="65" t="str">
         <f>A$275</f>
         <v>R&amp;D</v>
@@ -19147,7 +19209,7 @@
       </c>
       <c r="T278" s="62"/>
     </row>
-    <row r="279" spans="1:20" ht="112" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A279" s="65" t="str">
         <f>A$275</f>
         <v>R&amp;D</v>
@@ -19208,7 +19270,7 @@
       </c>
       <c r="T279" s="62"/>
     </row>
-    <row r="280" spans="1:20" ht="128" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A280" s="65" t="str">
         <f>A$275</f>
         <v>R&amp;D</v>
@@ -19274,12 +19336,12 @@
     <sortCondition ref="B119:B139"/>
   </sortState>
   <conditionalFormatting sqref="I267:I1048576 I1:I16 I18:I43 I45:I46 I48:I77 I79:I93 I95:I104 I106:I170 I172 I174:I175 I177:I189 I191:I192 I194 I197:I265">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",I266)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19294,807 +19356,998 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.83203125" style="88" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="88" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="69" style="5" customWidth="1"/>
-    <col min="7" max="8" width="34.33203125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="5"/>
+    <col min="1" max="1" width="40.85546875" style="88" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="88" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="88" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="69" style="5" customWidth="1"/>
+    <col min="8" max="9" width="34.28515625" style="5" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="5"/>
+    <col min="14" max="14" width="18.28515625" style="5" customWidth="1"/>
+    <col min="15" max="18" width="9.140625" style="5"/>
+    <col min="19" max="19" width="23.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="109" t="s">
+        <v>812</v>
+      </c>
+      <c r="B1" s="110" t="s">
         <v>813</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="C1" s="119" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="57" t="s">
+        <v>662</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="110" t="s">
+        <v>869</v>
+      </c>
+      <c r="I1" s="85" t="s">
+        <v>393</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="111" t="s">
         <v>814</v>
       </c>
-      <c r="C1" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>663</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="110" t="s">
-        <v>870</v>
-      </c>
-      <c r="H1" s="85" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="111" t="s">
+      <c r="B2" s="108" t="s">
         <v>815</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="C2" s="120">
+        <v>1</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="5" t="str">
+        <f>'Target Calculations'!A2</f>
+        <v>European Commission Suggested Target</v>
+      </c>
+      <c r="K2" s="88">
+        <f>'Target Calculations'!B2</f>
+        <v>2030</v>
+      </c>
+      <c r="L2" s="88">
+        <f>'Target Calculations'!C2</f>
+        <v>329.16699</v>
+      </c>
+      <c r="M2" s="88">
+        <f>'Target Calculations'!D2</f>
+        <v>329.16699</v>
+      </c>
+      <c r="N2" s="88" t="str">
+        <f>'Target Calculations'!E2</f>
+        <v>In 2016, the European Commission suggested that Poland aim to reduce emissions in 2030 by 7% relative to 2005 levels.</v>
+      </c>
+      <c r="O2" s="5" t="str">
+        <f>'Target Calculations'!A3</f>
+        <v>40% Reduction vs. 2005 Levels</v>
+      </c>
+      <c r="P2" s="88">
+        <f>'Target Calculations'!B3</f>
+        <v>2050</v>
+      </c>
+      <c r="Q2" s="88">
+        <f>'Target Calculations'!C3</f>
+        <v>212.36579999999998</v>
+      </c>
+      <c r="R2" s="88">
+        <f>'Target Calculations'!D3</f>
+        <v>212.36579999999998</v>
+      </c>
+      <c r="S2" s="88" t="str">
+        <f>'Target Calculations'!E3</f>
+        <v>The European Union announed a goal to reduce emissions by 80% relative to 2005 levels in 2050.  This target represents Poland contributing to this goal by reducing its emissions by 40% relative to 2005 levels.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
+        <v>814</v>
+      </c>
+      <c r="B3" s="112" t="s">
         <v>816</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C3" s="120">
+        <v>1</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>799</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>701</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="111" t="s">
+        <v>814</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>845</v>
+      </c>
+      <c r="C4" s="120">
+        <v>1</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>800</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>693</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="112" t="s">
+        <v>817</v>
+      </c>
+      <c r="B5" s="112" t="s">
+        <v>818</v>
+      </c>
+      <c r="C5" s="120">
+        <v>1</v>
+      </c>
+      <c r="D5" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="E5" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="F5" s="108" t="s">
         <v>493</v>
       </c>
-      <c r="F2" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="111" t="s">
-        <v>815</v>
-      </c>
-      <c r="B3" s="112" t="s">
+      <c r="G5" s="108" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="112" t="s">
         <v>817</v>
       </c>
-      <c r="C3" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="62" t="s">
+      <c r="B6" s="111" t="s">
+        <v>819</v>
+      </c>
+      <c r="C6" s="120">
+        <v>1</v>
+      </c>
+      <c r="D6" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="F6" s="108" t="s">
         <v>493</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>800</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>702</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="111" t="s">
-        <v>815</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>846</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="62" t="s">
+      <c r="G6" s="108" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="112" t="s">
+        <v>817</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>820</v>
+      </c>
+      <c r="C7" s="120">
+        <v>1</v>
+      </c>
+      <c r="D7" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="F7" s="108" t="s">
         <v>493</v>
       </c>
-      <c r="F4" s="62" t="s">
-        <v>801</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>694</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
-        <v>818</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>819</v>
-      </c>
-      <c r="C5" s="108" t="s">
+      <c r="G7" s="108" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="112" t="s">
+        <v>817</v>
+      </c>
+      <c r="B8" s="111" t="s">
+        <v>821</v>
+      </c>
+      <c r="C8" s="120">
+        <v>1</v>
+      </c>
+      <c r="D8" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="E8" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="F8" s="108" t="s">
         <v>493</v>
       </c>
-      <c r="F5" s="108" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="112" t="s">
-        <v>818</v>
-      </c>
-      <c r="B6" s="111" t="s">
-        <v>820</v>
-      </c>
-      <c r="C6" s="108" t="s">
+      <c r="G8" s="108" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="112" t="s">
+        <v>817</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>822</v>
+      </c>
+      <c r="C9" s="120">
+        <v>1</v>
+      </c>
+      <c r="D9" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="E9" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="F9" s="108" t="s">
+        <v>850</v>
+      </c>
+      <c r="G9" s="108" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="112" t="s">
+        <v>817</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>823</v>
+      </c>
+      <c r="C10" s="120">
+        <v>1</v>
+      </c>
+      <c r="D10" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="108" t="s">
+        <v>850</v>
+      </c>
+      <c r="G10" s="108" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="112" t="s">
+        <v>817</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>824</v>
+      </c>
+      <c r="C11" s="120">
+        <v>1</v>
+      </c>
+      <c r="D11" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="108" t="s">
+        <v>850</v>
+      </c>
+      <c r="G11" s="108" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="112" t="s">
+        <v>817</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>825</v>
+      </c>
+      <c r="C12" s="120">
+        <v>1</v>
+      </c>
+      <c r="D12" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>850</v>
+      </c>
+      <c r="G12" s="108" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="112" t="s">
+        <v>817</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>826</v>
+      </c>
+      <c r="C13" s="120">
+        <v>1</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="108" t="s">
         <v>493</v>
       </c>
-      <c r="F6" s="108" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
-        <v>818</v>
-      </c>
-      <c r="B7" s="111" t="s">
-        <v>821</v>
-      </c>
-      <c r="C7" s="108" t="s">
+      <c r="G13" s="108" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="112" t="s">
+        <v>817</v>
+      </c>
+      <c r="B14" s="111" t="s">
+        <v>827</v>
+      </c>
+      <c r="C14" s="120">
+        <v>1</v>
+      </c>
+      <c r="D14" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="E14" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="F14" s="108" t="s">
+        <v>850</v>
+      </c>
+      <c r="G14" s="108" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="112" t="s">
+        <v>817</v>
+      </c>
+      <c r="B15" s="111" t="s">
+        <v>828</v>
+      </c>
+      <c r="C15" s="120">
+        <v>1</v>
+      </c>
+      <c r="D15" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="108" t="s">
         <v>493</v>
       </c>
-      <c r="F7" s="108" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="112" t="s">
-        <v>818</v>
-      </c>
-      <c r="B8" s="111" t="s">
-        <v>822</v>
-      </c>
-      <c r="C8" s="108" t="s">
+      <c r="G15" s="108" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="112" t="s">
+        <v>817</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>829</v>
+      </c>
+      <c r="C16" s="120">
+        <v>1</v>
+      </c>
+      <c r="D16" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="E16" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="F16" s="108" t="s">
         <v>493</v>
       </c>
-      <c r="F8" s="108" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="112" t="s">
-        <v>818</v>
-      </c>
-      <c r="B9" s="111" t="s">
-        <v>823</v>
-      </c>
-      <c r="C9" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="108" t="s">
-        <v>851</v>
-      </c>
-      <c r="F9" s="108" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="112" t="s">
-        <v>818</v>
-      </c>
-      <c r="B10" s="111" t="s">
-        <v>824</v>
-      </c>
-      <c r="C10" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="108" t="s">
-        <v>851</v>
-      </c>
-      <c r="F10" s="108" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="112" t="s">
-        <v>818</v>
-      </c>
-      <c r="B11" s="111" t="s">
-        <v>825</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="108" t="s">
-        <v>851</v>
-      </c>
-      <c r="F11" s="108" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="112" t="s">
-        <v>818</v>
-      </c>
-      <c r="B12" s="111" t="s">
-        <v>826</v>
-      </c>
-      <c r="C12" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="108" t="s">
-        <v>851</v>
-      </c>
-      <c r="F12" s="108" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="112" t="s">
-        <v>818</v>
-      </c>
-      <c r="B13" s="111" t="s">
-        <v>827</v>
-      </c>
-      <c r="C13" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="108" t="s">
-        <v>493</v>
-      </c>
-      <c r="F13" s="108" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="112" t="s">
-        <v>818</v>
-      </c>
-      <c r="B14" s="111" t="s">
-        <v>828</v>
-      </c>
-      <c r="C14" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="108" t="s">
-        <v>851</v>
-      </c>
-      <c r="F14" s="108" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="112" t="s">
-        <v>818</v>
-      </c>
-      <c r="B15" s="111" t="s">
-        <v>829</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="108" t="s">
-        <v>493</v>
-      </c>
-      <c r="F15" s="108" t="s">
+      <c r="G16" s="108" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="112" t="s">
-        <v>818</v>
-      </c>
-      <c r="B16" s="111" t="s">
-        <v>830</v>
-      </c>
-      <c r="C16" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="108" t="s">
-        <v>493</v>
-      </c>
-      <c r="F16" s="108" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="112" t="s">
         <v>497</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="120">
+        <v>1</v>
+      </c>
+      <c r="D17" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="62" t="s">
-        <v>655</v>
-      </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="88" t="s">
+        <v>872</v>
+      </c>
+      <c r="F17" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="G17" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="G17" s="62"/>
       <c r="H17" s="62"/>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="I17" s="62"/>
+    </row>
+    <row r="18" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="112" t="s">
         <v>498</v>
       </c>
       <c r="B18" s="112" t="s">
-        <v>831</v>
-      </c>
-      <c r="C18" s="62" t="s">
+        <v>830</v>
+      </c>
+      <c r="C18" s="120">
+        <v>1</v>
+      </c>
+      <c r="D18" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="62" t="s">
-        <v>656</v>
-      </c>
       <c r="E18" s="62" t="s">
-        <v>701</v>
+        <v>655</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>802</v>
-      </c>
-      <c r="G18" s="62"/>
+        <v>700</v>
+      </c>
+      <c r="G18" s="62" t="s">
+        <v>801</v>
+      </c>
       <c r="H18" s="62"/>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="I18" s="62"/>
+    </row>
+    <row r="19" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="112" t="s">
         <v>498</v>
       </c>
       <c r="B19" s="112" t="s">
+        <v>831</v>
+      </c>
+      <c r="C19" s="120">
+        <v>1</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>655</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>700</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>801</v>
+      </c>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="112" t="s">
         <v>832</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="B20" s="112" t="s">
+        <v>833</v>
+      </c>
+      <c r="C20" s="120">
+        <v>1</v>
+      </c>
+      <c r="D20" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="62" t="s">
-        <v>656</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>701</v>
-      </c>
-      <c r="F19" s="62" t="s">
+      <c r="E20" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>698</v>
+      </c>
+      <c r="G20" s="62" t="s">
         <v>802</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-    </row>
-    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="112" t="s">
-        <v>833</v>
-      </c>
-      <c r="B20" s="112" t="s">
+      <c r="H20" s="62" t="s">
+        <v>661</v>
+      </c>
+      <c r="I20" s="62"/>
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="112" t="s">
+        <v>832</v>
+      </c>
+      <c r="B21" s="112" t="s">
         <v>834</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C21" s="120">
+        <v>1</v>
+      </c>
+      <c r="D21" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="E21" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="F21" s="62" t="s">
+        <v>698</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>803</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>661</v>
+      </c>
+      <c r="I21" s="62"/>
+    </row>
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="112" t="s">
+        <v>832</v>
+      </c>
+      <c r="B22" s="112" t="s">
+        <v>835</v>
+      </c>
+      <c r="C22" s="120">
+        <v>1</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="62" t="s">
         <v>699</v>
       </c>
-      <c r="F20" s="62" t="s">
-        <v>803</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>662</v>
-      </c>
-      <c r="H20" s="62"/>
-    </row>
-    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="112" t="s">
-        <v>833</v>
-      </c>
-      <c r="B21" s="112" t="s">
-        <v>835</v>
-      </c>
-      <c r="C21" s="62" t="s">
+      <c r="G22" s="62" t="s">
+        <v>804</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="112" t="s">
+        <v>836</v>
+      </c>
+      <c r="B23" s="112" t="s">
+        <v>837</v>
+      </c>
+      <c r="C23" s="120">
+        <v>1</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>494</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="112" t="s">
+        <v>836</v>
+      </c>
+      <c r="B24" s="112" t="s">
+        <v>838</v>
+      </c>
+      <c r="C24" s="120">
+        <v>1</v>
+      </c>
+      <c r="D24" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>699</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+    </row>
+    <row r="25" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="112" t="s">
+        <v>839</v>
+      </c>
+      <c r="B25" s="112" t="s">
+        <v>840</v>
+      </c>
+      <c r="C25" s="120">
+        <v>1</v>
+      </c>
+      <c r="D25" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="62" t="s">
+      <c r="E25" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>805</v>
+      </c>
+      <c r="H25" s="62" t="s">
+        <v>688</v>
+      </c>
+      <c r="I25" s="62" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="112" t="s">
+        <v>839</v>
+      </c>
+      <c r="B26" s="112" t="s">
+        <v>841</v>
+      </c>
+      <c r="C26" s="120">
+        <v>1</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="62" t="s">
-        <v>699</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>804</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>662</v>
-      </c>
-      <c r="H21" s="62"/>
-    </row>
-    <row r="22" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A22" s="112" t="s">
-        <v>833</v>
-      </c>
-      <c r="B22" s="112" t="s">
-        <v>836</v>
-      </c>
-      <c r="C22" s="62" t="s">
+      <c r="F26" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>806</v>
+      </c>
+      <c r="H26" s="62" t="s">
+        <v>690</v>
+      </c>
+      <c r="I26" s="62" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="112" t="s">
+        <v>839</v>
+      </c>
+      <c r="B27" s="112" t="s">
+        <v>842</v>
+      </c>
+      <c r="C27" s="120">
+        <v>1</v>
+      </c>
+      <c r="D27" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="E27" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="62" t="s">
+        <v>496</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="H27" s="62" t="s">
+        <v>688</v>
+      </c>
+      <c r="I27" s="62" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A28" s="112" t="s">
+        <v>839</v>
+      </c>
+      <c r="B28" s="112" t="s">
+        <v>843</v>
+      </c>
+      <c r="C28" s="120">
+        <v>1</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="62" t="s">
-        <v>700</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>805</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>409</v>
-      </c>
-      <c r="H22" s="62" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="112" t="s">
-        <v>837</v>
-      </c>
-      <c r="B23" s="112" t="s">
-        <v>838</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>494</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="112" t="s">
-        <v>837</v>
-      </c>
-      <c r="B24" s="112" t="s">
-        <v>839</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>700</v>
-      </c>
-      <c r="F24" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-    </row>
-    <row r="25" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A25" s="112" t="s">
-        <v>840</v>
-      </c>
-      <c r="B25" s="112" t="s">
-        <v>841</v>
-      </c>
-      <c r="C25" s="62" t="s">
+      <c r="F28" s="62" t="s">
+        <v>496</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>808</v>
+      </c>
+      <c r="H28" s="62" t="s">
+        <v>690</v>
+      </c>
+      <c r="I28" s="62" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="112" t="s">
+        <v>859</v>
+      </c>
+      <c r="B29" s="112" t="s">
+        <v>860</v>
+      </c>
+      <c r="C29" s="120">
+        <v>1</v>
+      </c>
+      <c r="D29" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="E29" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="62" t="s">
-        <v>495</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>806</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>689</v>
-      </c>
-      <c r="H25" s="62" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="144" x14ac:dyDescent="0.2">
-      <c r="A26" s="112" t="s">
-        <v>840</v>
-      </c>
-      <c r="B26" s="112" t="s">
-        <v>842</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="62" t="s">
-        <v>495</v>
-      </c>
-      <c r="F26" s="62" t="s">
-        <v>807</v>
-      </c>
-      <c r="G26" s="62" t="s">
-        <v>691</v>
-      </c>
-      <c r="H26" s="62" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="160" x14ac:dyDescent="0.2">
-      <c r="A27" s="112" t="s">
-        <v>840</v>
-      </c>
-      <c r="B27" s="112" t="s">
-        <v>843</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>496</v>
-      </c>
-      <c r="F27" s="62" t="s">
-        <v>808</v>
-      </c>
-      <c r="G27" s="62" t="s">
-        <v>689</v>
-      </c>
-      <c r="H27" s="62" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="176" x14ac:dyDescent="0.2">
-      <c r="A28" s="112" t="s">
-        <v>840</v>
-      </c>
-      <c r="B28" s="112" t="s">
-        <v>844</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>496</v>
-      </c>
-      <c r="F28" s="62" t="s">
+      <c r="F29" s="62" t="s">
+        <v>695</v>
+      </c>
+      <c r="G29" s="62" t="s">
         <v>809</v>
       </c>
-      <c r="G28" s="62" t="s">
-        <v>691</v>
-      </c>
-      <c r="H28" s="62" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="112" x14ac:dyDescent="0.2">
-      <c r="A29" s="112" t="s">
-        <v>860</v>
-      </c>
-      <c r="B29" s="112" t="s">
-        <v>861</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="62" t="s">
+      <c r="H29" s="62" t="s">
         <v>696</v>
       </c>
-      <c r="F29" s="62" t="s">
-        <v>810</v>
-      </c>
-      <c r="G29" s="62" t="s">
+      <c r="I29" s="62" t="s">
         <v>697</v>
       </c>
-      <c r="H29" s="62" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="112" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B30" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="120">
+        <v>1</v>
+      </c>
+      <c r="D30" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="108" t="s">
+      <c r="E30" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="108" t="s">
+      <c r="F30" s="108" t="s">
         <v>495</v>
       </c>
-      <c r="F30" s="108" t="s">
+      <c r="G30" s="108" t="s">
+        <v>861</v>
+      </c>
+      <c r="H30" s="108"/>
+    </row>
+    <row r="31" spans="1:9" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="112" t="s">
+        <v>660</v>
+      </c>
+      <c r="B31" s="112" t="s">
+        <v>672</v>
+      </c>
+      <c r="C31" s="120">
+        <v>1</v>
+      </c>
+      <c r="D31" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s">
         <v>862</v>
       </c>
-      <c r="G30" s="108"/>
-    </row>
-    <row r="31" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="112" t="s">
-        <v>661</v>
-      </c>
-      <c r="B31" s="112" t="s">
-        <v>673</v>
-      </c>
-      <c r="C31" s="108" t="s">
+      <c r="G31" s="108" t="s">
+        <v>863</v>
+      </c>
+      <c r="H31" s="108"/>
+    </row>
+    <row r="32" spans="1:9" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="112" t="s">
+        <v>660</v>
+      </c>
+      <c r="B32" s="112" t="s">
+        <v>666</v>
+      </c>
+      <c r="C32" s="120">
+        <v>1</v>
+      </c>
+      <c r="D32" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="108" t="s">
+      <c r="E32" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E31" t="s">
-        <v>863</v>
-      </c>
-      <c r="F31" s="108" t="s">
+      <c r="F32" t="s">
+        <v>862</v>
+      </c>
+      <c r="G32" s="108" t="s">
         <v>864</v>
       </c>
-      <c r="G31" s="108"/>
-    </row>
-    <row r="32" spans="1:8" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="112" t="s">
-        <v>661</v>
-      </c>
-      <c r="B32" s="112" t="s">
-        <v>667</v>
-      </c>
-      <c r="C32" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>863</v>
-      </c>
-      <c r="F32" s="108" t="s">
-        <v>865</v>
-      </c>
-      <c r="G32" s="108"/>
-    </row>
-    <row r="33" spans="1:7" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="H32" s="108"/>
+    </row>
+    <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="112" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B33" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="120">
+        <v>1</v>
+      </c>
+      <c r="D33" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="108" t="s">
+      <c r="E33" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>865</v>
+      </c>
+      <c r="G33" s="108" t="s">
         <v>866</v>
       </c>
-      <c r="F33" s="108" t="s">
+      <c r="H33" s="108"/>
+    </row>
+    <row r="34" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="112" t="s">
+        <v>660</v>
+      </c>
+      <c r="B34" s="112" t="s">
+        <v>844</v>
+      </c>
+      <c r="C34" s="120">
+        <v>1</v>
+      </c>
+      <c r="D34" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="108" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" t="s">
         <v>867</v>
       </c>
-      <c r="G33" s="108"/>
-    </row>
-    <row r="34" spans="1:7" s="113" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="112" t="s">
-        <v>661</v>
-      </c>
-      <c r="B34" s="112" t="s">
-        <v>845</v>
-      </c>
-      <c r="C34" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="G34" s="108" t="s">
         <v>868</v>
       </c>
-      <c r="F34" s="108" t="s">
-        <v>869</v>
-      </c>
-      <c r="G34" s="108"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="108"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="112"/>
       <c r="B35" s="112"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="112"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="112"/>
       <c r="B36" s="112"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="112"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="112"/>
       <c r="B37" s="112"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="112"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="112"/>
       <c r="B38" s="112"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="112"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="112"/>
       <c r="B39" s="112"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="112"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="112"/>
       <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C34">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -20104,18 +20357,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" style="11" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="11"/>
+    <col min="2" max="2" width="34.140625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>89</v>
       </c>
@@ -20123,15 +20376,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>180</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="87"/>
       <c r="B3" s="87"/>
     </row>
@@ -20145,19 +20398,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="73.5" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="11"/>
+    <col min="1" max="1" width="49.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="73.42578125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>461</v>
       </c>
@@ -20174,9 +20427,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B2" s="88">
         <v>2030</v>
@@ -20188,12 +20441,12 @@
         <v>329.16699</v>
       </c>
       <c r="E2" s="88" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
         <v>705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
-        <v>706</v>
       </c>
       <c r="B3" s="88">
         <v>2050</v>
@@ -20205,7 +20458,7 @@
         <v>212.36579999999998</v>
       </c>
       <c r="E3" s="88" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -20222,38 +20475,38 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="79.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="11" customWidth="1"/>
     <col min="4" max="4" width="22" style="11" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.5" style="11" customWidth="1"/>
-    <col min="11" max="16" width="9.1640625" style="11"/>
-    <col min="17" max="17" width="25.83203125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="11" customWidth="1"/>
-    <col min="19" max="19" width="19.83203125" style="11" customWidth="1"/>
-    <col min="20" max="21" width="12.5" style="11" customWidth="1"/>
-    <col min="22" max="23" width="16.33203125" style="11" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1640625" style="11"/>
+    <col min="5" max="5" width="19.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" style="11" customWidth="1"/>
+    <col min="11" max="16" width="9.140625" style="11"/>
+    <col min="17" max="17" width="25.85546875" style="11" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="11" customWidth="1"/>
+    <col min="20" max="21" width="12.42578125" style="11" customWidth="1"/>
+    <col min="22" max="23" width="16.28515625" style="11" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="118" t="s">
         <v>202</v>
       </c>
@@ -20262,12 +20515,12 @@
       <c r="D2" s="118"/>
       <c r="E2" s="118"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>155400</v>
       </c>
@@ -20275,7 +20528,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="118" t="s">
         <v>205</v>
       </c>
@@ -20284,12 +20537,12 @@
       <c r="D21" s="118"/>
       <c r="E21" s="118"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>100800</v>
       </c>
@@ -20297,7 +20550,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="118" t="s">
         <v>206</v>
       </c>
@@ -20306,12 +20559,12 @@
       <c r="D40" s="118"/>
       <c r="E40" s="118"/>
     </row>
-    <row r="57" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>194000</v>
       </c>
@@ -20319,16 +20572,16 @@
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="117" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="B60" s="117"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-    </row>
-    <row r="85" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+    </row>
+    <row r="85" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>501</v>
       </c>
@@ -20375,7 +20628,7 @@
       <c r="AL85" s="11"/>
       <c r="AM85" s="11"/>
     </row>
-    <row r="86" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>503</v>
       </c>
@@ -20420,8 +20673,8 @@
       <c r="AL86" s="11"/>
       <c r="AM86" s="11"/>
     </row>
-    <row r="87" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>504</v>
       </c>
@@ -20430,16 +20683,16 @@
         <v>1.0254083484573502</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A89" s="117" t="s">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A89" s="114" t="s">
         <v>209</v>
       </c>
-      <c r="B89" s="117"/>
-      <c r="C89" s="117"/>
-      <c r="D89" s="117"/>
-      <c r="E89" s="117"/>
-    </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B89" s="114"/>
+      <c r="C89" s="114"/>
+      <c r="D89" s="114"/>
+      <c r="E89" s="114"/>
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <v>6.6290250000000004</v>
       </c>
@@ -20450,7 +20703,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <f>1/A90</f>
         <v>0.15085174667466181</v>
@@ -20462,7 +20715,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
         <v>0.5</v>
       </c>
@@ -20473,7 +20726,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <f>A92*A91</f>
         <v>7.5425873337330904E-2</v>
@@ -20485,7 +20738,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <f>1/A93</f>
         <v>13.258050000000001</v>
@@ -20498,7 +20751,7 @@
       </c>
       <c r="L94" s="17"/>
     </row>
-    <row r="95" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>8.0274920000000005</v>
       </c>
@@ -20510,7 +20763,7 @@
       </c>
       <c r="L95" s="17"/>
     </row>
-    <row r="96" spans="1:39" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
         <f>(A94-A95)/A95</f>
         <v>0.65158059329115492</v>
@@ -20523,16 +20776,16 @@
         <v>214</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="117" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="114" t="s">
         <v>210</v>
       </c>
-      <c r="B98" s="117"/>
-      <c r="C98" s="117"/>
-      <c r="D98" s="117"/>
-      <c r="E98" s="117"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="114"/>
+      <c r="C98" s="114"/>
+      <c r="D98" s="114"/>
+      <c r="E98" s="114"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>0.3</v>
       </c>
@@ -20540,7 +20793,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <v>63.5</v>
       </c>
@@ -20548,7 +20801,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <f>1/A100</f>
         <v>1.5748031496062992E-2</v>
@@ -20557,7 +20810,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="20">
         <f>A101*(1-A99)</f>
         <v>1.1023622047244094E-2</v>
@@ -20566,7 +20819,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="20">
         <f>1/A102</f>
         <v>90.714285714285722</v>
@@ -20575,7 +20828,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>0.35</v>
       </c>
@@ -20583,7 +20836,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="11">
         <f>A102*(1-A104)</f>
         <v>7.1653543307086615E-3</v>
@@ -20592,7 +20845,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
         <f>1/A105</f>
         <v>139.56043956043956</v>
@@ -20601,7 +20854,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="21">
         <f>(A106-A103)/A103</f>
         <v>0.53846153846153832</v>
@@ -20610,20 +20863,20 @@
         <v>525</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="22"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="117" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="B109" s="117"/>
-      <c r="C109" s="117"/>
-      <c r="D109" s="117"/>
-      <c r="E109" s="117"/>
-    </row>
-    <row r="110" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="114"/>
+      <c r="C109" s="114"/>
+      <c r="D109" s="114"/>
+      <c r="E109" s="114"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="21">
         <f>A122</f>
         <v>0.20481927710843381</v>
@@ -20632,16 +20885,16 @@
         <v>527</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="117" t="s">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="B113" s="117"/>
-      <c r="C113" s="117"/>
-      <c r="D113" s="117"/>
-      <c r="E113" s="117"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="19">
         <v>0.2</v>
       </c>
@@ -20649,7 +20902,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <v>1.95</v>
       </c>
@@ -20657,7 +20910,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <f>1/A115</f>
         <v>0.51282051282051289</v>
@@ -20666,7 +20919,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="20">
         <f>A116*(1-A114)</f>
         <v>0.41025641025641035</v>
@@ -20675,7 +20928,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="20">
         <f>1/A117</f>
         <v>2.4374999999999996</v>
@@ -20684,7 +20937,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="19">
         <v>0.17</v>
       </c>
@@ -20692,7 +20945,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="11">
         <f>A117*(1-A119)</f>
         <v>0.34051282051282056</v>
@@ -20701,7 +20954,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <f>1/A120</f>
         <v>2.9367469879518069</v>
@@ -20710,7 +20963,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="21">
         <f>(A121-A118)/A118</f>
         <v>0.20481927710843381</v>
@@ -20719,17 +20972,17 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="117" t="s">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="114" t="s">
         <v>528</v>
       </c>
-      <c r="B124" s="117"/>
-      <c r="C124" s="117"/>
-      <c r="D124" s="117"/>
-      <c r="E124" s="117"/>
+      <c r="B124" s="114"/>
+      <c r="C124" s="114"/>
+      <c r="D124" s="114"/>
+      <c r="E124" s="114"/>
       <c r="L124" s="23"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="24">
         <v>4.4824543659231753E-4</v>
       </c>
@@ -20739,7 +20992,7 @@
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <v>1.27</v>
       </c>
@@ -20751,7 +21004,7 @@
       <c r="M126" s="24"/>
       <c r="N126" s="24"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <f>(1/CONVERT(A125/A126,"mi","km")*0.00105505585)</f>
         <v>1.857438352962903</v>
@@ -20763,7 +21016,7 @@
       <c r="M127" s="24"/>
       <c r="N127" s="24"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <f>1/A127</f>
         <v>0.53837587578874124</v>
@@ -20775,7 +21028,7 @@
       <c r="M128" s="19"/>
       <c r="N128" s="17"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <v>1.07</v>
       </c>
@@ -20786,7 +21039,7 @@
       <c r="M129" s="19"/>
       <c r="N129" s="17"/>
     </row>
-    <row r="130" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <f>1/A129</f>
         <v>0.93457943925233644</v>
@@ -20798,7 +21051,7 @@
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
     </row>
-    <row r="131" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="21">
         <f>(A130-A128)/A128</f>
         <v>0.73592369435785332</v>
@@ -20808,24 +21061,24 @@
       </c>
       <c r="F131" s="26"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="J132" s="28"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="117" t="s">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="B134" s="117"/>
-      <c r="C134" s="117"/>
-      <c r="D134" s="117"/>
-      <c r="E134" s="117"/>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B134" s="114"/>
+      <c r="C134" s="114"/>
+      <c r="D134" s="114"/>
+      <c r="E134" s="114"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="29" t="s">
         <v>551</v>
       </c>
@@ -20836,31 +21089,31 @@
       <c r="F135" s="30"/>
       <c r="G135" s="30"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A136" s="31"/>
-      <c r="B136" s="114" t="s">
+      <c r="B136" s="115" t="s">
         <v>552</v>
       </c>
-      <c r="C136" s="115"/>
-      <c r="D136" s="115"/>
-      <c r="E136" s="116"/>
+      <c r="C136" s="116"/>
+      <c r="D136" s="116"/>
+      <c r="E136" s="117"/>
       <c r="F136" s="30"/>
       <c r="G136" s="30"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A137" s="32"/>
-      <c r="B137" s="114" t="s">
+      <c r="B137" s="115" t="s">
         <v>553</v>
       </c>
-      <c r="C137" s="116"/>
-      <c r="D137" s="114" t="s">
+      <c r="C137" s="117"/>
+      <c r="D137" s="115" t="s">
         <v>554</v>
       </c>
-      <c r="E137" s="116"/>
+      <c r="E137" s="117"/>
       <c r="F137" s="30"/>
       <c r="G137" s="30"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A138" s="33" t="s">
         <v>555</v>
       </c>
@@ -20881,7 +21134,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="36" t="s">
         <v>559</v>
       </c>
@@ -20905,7 +21158,7 @@
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="39" t="s">
         <v>560</v>
       </c>
@@ -20929,7 +21182,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="39" t="s">
         <v>561</v>
       </c>
@@ -20953,7 +21206,7 @@
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="39" t="s">
         <v>562</v>
       </c>
@@ -20977,7 +21230,7 @@
         <v>-4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="39" t="s">
         <v>563</v>
       </c>
@@ -21001,7 +21254,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="39" t="s">
         <v>564</v>
       </c>
@@ -21025,7 +21278,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="39" t="s">
         <v>565</v>
       </c>
@@ -21049,7 +21302,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="39" t="s">
         <v>567</v>
       </c>
@@ -21073,7 +21326,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="39" t="s">
         <v>568</v>
       </c>
@@ -21097,7 +21350,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="39" t="s">
         <v>569</v>
       </c>
@@ -21121,7 +21374,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="39" t="s">
         <v>570</v>
       </c>
@@ -21145,7 +21398,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="39" t="s">
         <v>571</v>
       </c>
@@ -21169,7 +21422,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="39" t="s">
         <v>572</v>
       </c>
@@ -21193,7 +21446,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="39" t="s">
         <v>573</v>
       </c>
@@ -21217,7 +21470,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="39" t="s">
         <v>574</v>
       </c>
@@ -21241,7 +21494,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="39" t="s">
         <v>575</v>
       </c>
@@ -21266,7 +21519,7 @@
       </c>
       <c r="I154" s="43"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="39" t="s">
         <v>576</v>
       </c>
@@ -21290,7 +21543,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="44" t="s">
         <v>577</v>
       </c>
@@ -21314,7 +21567,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="30"/>
       <c r="B157" s="30"/>
       <c r="C157" s="30"/>
@@ -21323,7 +21576,7 @@
       <c r="F157" s="30"/>
       <c r="G157" s="30"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="30"/>
       <c r="B158" s="30"/>
       <c r="C158" s="30"/>
@@ -21332,7 +21585,7 @@
       <c r="F158" s="30"/>
       <c r="G158" s="30"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
         <v>147</v>
       </c>
@@ -21346,7 +21599,7 @@
       <c r="F159" s="30"/>
       <c r="G159" s="30"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
         <v>566</v>
       </c>
@@ -21360,7 +21613,7 @@
       <c r="F160" s="30"/>
       <c r="G160" s="30"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
         <v>146</v>
       </c>
@@ -21374,7 +21627,7 @@
       <c r="F161" s="30"/>
       <c r="G161" s="30"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
         <v>143</v>
       </c>
@@ -21388,7 +21641,7 @@
       <c r="F162" s="30"/>
       <c r="G162" s="30"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="30" t="s">
         <v>144</v>
       </c>
@@ -21402,16 +21655,16 @@
       <c r="F163" s="30"/>
       <c r="G163" s="30"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="117" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="114" t="s">
         <v>215</v>
       </c>
-      <c r="B165" s="117"/>
-      <c r="C165" s="117"/>
-      <c r="D165" s="117"/>
-      <c r="E165" s="117"/>
-    </row>
-    <row r="166" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="114"/>
+      <c r="C165" s="114"/>
+      <c r="D165" s="114"/>
+      <c r="E165" s="114"/>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="25" t="s">
         <v>216</v>
       </c>
@@ -21419,7 +21672,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="11" t="s">
         <v>217</v>
       </c>
@@ -21428,16 +21681,16 @@
         <v>3.4219694129380196E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B168" s="48"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="117" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="114" t="s">
         <v>536</v>
       </c>
-      <c r="B169" s="117"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B169" s="114"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
         <v>537</v>
       </c>
@@ -21445,7 +21698,7 @@
         <v>972.7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="25" t="s">
         <v>538</v>
       </c>
@@ -21454,7 +21707,7 @@
         <v>4124.8</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="25" t="s">
         <v>539</v>
       </c>
@@ -21463,19 +21716,19 @@
         <v>0.23581749418153608</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B173" s="48"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="117" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="B174" s="117"/>
-      <c r="C174" s="117"/>
-      <c r="D174" s="117"/>
-      <c r="E174" s="117"/>
-    </row>
-    <row r="175" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="114"/>
+      <c r="C174" s="114"/>
+      <c r="D174" s="114"/>
+      <c r="E174" s="114"/>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="25" t="s">
         <v>546</v>
       </c>
@@ -21483,7 +21736,7 @@
         <v>0.1246</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="25" t="s">
         <v>541</v>
       </c>
@@ -21492,16 +21745,16 @@
         <v>0.87539999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="117" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="B178" s="117"/>
-      <c r="C178" s="117"/>
-      <c r="D178" s="117"/>
-      <c r="E178" s="117"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="114"/>
+      <c r="C178" s="114"/>
+      <c r="D178" s="114"/>
+      <c r="E178" s="114"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="27" t="s">
         <v>543</v>
       </c>
@@ -21509,7 +21762,7 @@
         <v>197000</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
         <v>544</v>
       </c>
@@ -21517,7 +21770,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
         <v>219</v>
       </c>
@@ -21526,16 +21779,16 @@
         <v>1.1257142857142857</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="117" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="B183" s="117"/>
-      <c r="C183" s="117"/>
-      <c r="D183" s="117"/>
-      <c r="E183" s="117"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="114"/>
+      <c r="C183" s="114"/>
+      <c r="D183" s="114"/>
+      <c r="E183" s="114"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="51" t="s">
         <v>547</v>
       </c>
@@ -21546,7 +21799,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="51" t="s">
         <v>549</v>
       </c>
@@ -21557,7 +21810,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="25" t="s">
         <v>550</v>
       </c>
@@ -21566,16 +21819,16 @@
         <v>7.5409836065573763E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="117" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="B188" s="117"/>
-      <c r="C188" s="117"/>
-      <c r="D188" s="117"/>
-      <c r="E188" s="117"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B188" s="114"/>
+      <c r="C188" s="114"/>
+      <c r="D188" s="114"/>
+      <c r="E188" s="114"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
         <v>230</v>
       </c>
@@ -21584,7 +21837,7 @@
       </c>
       <c r="C189" s="23"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
         <v>232</v>
       </c>
@@ -21595,7 +21848,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="11" t="s">
         <v>234</v>
       </c>
@@ -21605,7 +21858,7 @@
       </c>
       <c r="C191" s="54"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="11" t="s">
         <v>235</v>
       </c>
@@ -21613,7 +21866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="11" t="s">
         <v>236</v>
       </c>
@@ -21622,7 +21875,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="11" t="s">
         <v>237</v>
       </c>
@@ -21633,12 +21886,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -21653,6 +21900,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
